--- a/datas/artists.xlsx
+++ b/datas/artists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarvar\Desktop\INHA\5th Semester\database design\team_project\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871F5EED-9247-4E9B-AC02-82964D130245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB965FAF-FFFA-4BEF-A730-AF2C5A2C1381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>Ed Sheeran</t>
   </si>
   <si>
-    <t>Beyoncé</t>
-  </si>
-  <si>
     <t>Taylor Swift</t>
   </si>
   <si>
@@ -216,9 +213,6 @@
     <t>ed_sheeran_19</t>
   </si>
   <si>
-    <t>beyonce_queen1</t>
-  </si>
-  <si>
     <t>taylorswift_13</t>
   </si>
   <si>
@@ -366,9 +360,6 @@
     <t>ed.Sh33ran.19</t>
   </si>
   <si>
-    <t>bEyOnce.Queen1</t>
-  </si>
-  <si>
     <t>tAyL0r.Sw1ft13</t>
   </si>
   <si>
@@ -516,9 +507,6 @@
     <t>ed.Sh33ran.19_me@gmail.com</t>
   </si>
   <si>
-    <t>bEyOnce.Queen1_me@gmail.com</t>
-  </si>
-  <si>
     <t>tAyL0r.Sw1ft13_me@gmail.com</t>
   </si>
   <si>
@@ -666,9 +654,6 @@
     <t>2022-07-23</t>
   </si>
   <si>
-    <t>2021-04-12</t>
-  </si>
-  <si>
     <t>2021-12-28</t>
   </si>
   <si>
@@ -795,9 +780,6 @@
     <t>A British singer-songwriter who rose to fame with heartfelt ballads and has continued to break records with his soulful music.</t>
   </si>
   <si>
-    <t>Known as Queen B, she’s an empowering artist who blends pop, R&amp;B, and hip-hop to create music that defines a generation.</t>
-  </si>
-  <si>
     <t>A globally acclaimed singer-songwriter, known for her deeply personal lyrics and ability to cross multiple music genres with ease.</t>
   </si>
   <si>
@@ -996,9 +978,6 @@
     <t>G7B2H</t>
   </si>
   <si>
-    <t>K9C3R</t>
-  </si>
-  <si>
     <t>P4Q2W</t>
   </si>
   <si>
@@ -1146,9 +1125,6 @@
     <t>media/user_profile/image_2.jpg</t>
   </si>
   <si>
-    <t>media/user_profile/image_3.jpg</t>
-  </si>
-  <si>
     <t>media/user_profile/image_4.jpg</t>
   </si>
   <si>
@@ -1288,13 +1264,37 @@
   </si>
   <si>
     <t>media/user_profile/image_50.jpg</t>
+  </si>
+  <si>
+    <t>hiroyuki_1</t>
+  </si>
+  <si>
+    <t>Hiroyuki Sawano</t>
+  </si>
+  <si>
+    <t>hir0yuki.1</t>
+  </si>
+  <si>
+    <t>hiroyuki_1@gmail.com</t>
+  </si>
+  <si>
+    <t>media/user_profile/image_51.jpg</t>
+  </si>
+  <si>
+    <t>a Japanese composer, arranger, lyricist, pianist, and music producer best known for his work on many anime series, video games, television dramas, and movies</t>
+  </si>
+  <si>
+    <t>Orchestral</t>
+  </si>
+  <si>
+    <t>RWEF8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1306,6 +1306,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1328,16 +1336,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1618,8 +1629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F51"/>
+    <sheetView tabSelected="1" topLeftCell="E26" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,10 +1638,10 @@
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="31.5703125" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="23.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="30.85546875" customWidth="1"/>
-    <col min="7" max="7" width="129.5703125" customWidth="1"/>
+    <col min="7" max="7" width="145.85546875" customWidth="1"/>
     <col min="9" max="9" width="25.28515625" customWidth="1"/>
     <col min="10" max="10" width="47.42578125" style="3" customWidth="1"/>
   </cols>
@@ -1645,7 +1656,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1669,31 +1680,31 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" t="s">
-        <v>158</v>
+        <v>106</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="J2">
         <v>2391875609384720</v>
@@ -1701,31 +1712,31 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" t="s">
-        <v>159</v>
+        <v>107</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F3" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="G3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="I3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="J3">
         <v>5748392641059380</v>
@@ -1733,1542 +1744,1542 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" t="s">
-        <v>160</v>
+        <v>108</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F4" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="I4" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="J4">
-        <v>9153748207643510</v>
+        <v>4837519206578490</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" t="s">
-        <v>161</v>
+        <v>109</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F5" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H5" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="I5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="J5">
-        <v>4837519206578490</v>
+        <v>6275390182475610</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" t="s">
-        <v>162</v>
+        <v>110</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F6" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G6" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H6" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I6" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="J6">
-        <v>6275390182475610</v>
+        <v>8209735648123040</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" t="s">
-        <v>163</v>
+        <v>111</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="G7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="I7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="J7">
-        <v>8209735648123040</v>
+        <v>6312849057621480</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" t="s">
-        <v>164</v>
+        <v>112</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F8" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G8" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I8" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J8">
-        <v>6312849057621480</v>
+        <v>7450926184736510</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" t="s">
-        <v>165</v>
+        <v>113</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F9" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="G9" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H9" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="I9" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="J9">
-        <v>7450926184736510</v>
+        <v>3918275049831250</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" t="s">
-        <v>166</v>
+        <v>114</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F10" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H10" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="I10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J10">
-        <v>3918275049831250</v>
+        <v>8062513794507280</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" t="s">
-        <v>167</v>
+        <v>115</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F11" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="G11" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H11" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="I11" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="J11">
-        <v>8062513794507280</v>
+        <v>3928106754930250</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" t="s">
-        <v>168</v>
+        <v>116</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F12" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G12" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H12" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="I12" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J12">
-        <v>3928106754930250</v>
+        <v>5198642038721060</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" t="s">
-        <v>169</v>
+        <v>117</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F13" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="G13" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I13" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="J13">
-        <v>5198642038721060</v>
+        <v>2679514830624710</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" t="s">
-        <v>170</v>
+        <v>118</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F14" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H14" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="I14" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="J14">
-        <v>2679514830624710</v>
+        <v>5839107623480510</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" t="s">
-        <v>171</v>
+        <v>119</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F15" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="G15" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H15" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="I15" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="J15">
-        <v>5839107623480510</v>
+        <v>4193827360594870</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" t="s">
-        <v>172</v>
+        <v>120</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F16" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H16" t="s">
         <v>302</v>
       </c>
       <c r="I16" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="J16">
-        <v>4193827360594870</v>
+        <v>2709465138247090</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" t="s">
-        <v>173</v>
+        <v>121</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F17" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="G17" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H17" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="I17" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="J17">
-        <v>2709465138247090</v>
+        <v>6182034791526890</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" t="s">
-        <v>174</v>
+        <v>122</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F18" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G18" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H18" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="I18" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J18">
-        <v>6182034791526890</v>
+        <v>3849275106583740</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" t="s">
-        <v>175</v>
+        <v>123</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F19" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G19" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H19" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="I19" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="J19">
-        <v>3849275106583740</v>
+        <v>9526814072039840</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" t="s">
-        <v>176</v>
+        <v>124</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F20" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G20" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H20" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="I20" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J20">
-        <v>9526814072039840</v>
+        <v>4310659284723100</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" t="s">
-        <v>177</v>
+        <v>125</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F21" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="G21" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H21" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I21" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J21">
-        <v>4310659284723100</v>
+        <v>8701396524309780</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" t="s">
-        <v>178</v>
+        <v>126</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F22" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G22" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H22" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="I22" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="J22">
-        <v>8701396524309780</v>
+        <v>7628031546972340</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" t="s">
-        <v>179</v>
+        <v>127</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F23" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="G23" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H23" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I23" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="J23">
-        <v>7628031546972340</v>
+        <v>5397028148362050</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" t="s">
-        <v>180</v>
+        <v>128</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F24" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G24" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H24" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="I24" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="J24">
-        <v>5397028148362050</v>
+        <v>2489765137806490</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" t="s">
-        <v>181</v>
+        <v>129</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F25" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="G25" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H25" t="s">
         <v>305</v>
       </c>
       <c r="I25" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="J25">
-        <v>2489765137806490</v>
+        <v>3908127543019860</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" t="s">
-        <v>182</v>
+        <v>130</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F26" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G26" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H26" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="I26" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="J26">
-        <v>3908127543019860</v>
+        <v>1049768325027590</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27" t="s">
-        <v>183</v>
+        <v>131</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F27" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G27" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H27" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="I27" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="J27">
-        <v>1049768325027590</v>
+        <v>6581932709846510</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" t="s">
-        <v>184</v>
+        <v>132</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F28" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G28" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H28" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="I28" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="J28">
-        <v>6581932709846510</v>
+        <v>9875314207648930</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
-      </c>
-      <c r="D29" t="s">
-        <v>185</v>
+        <v>133</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F29" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G29" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H29" t="s">
         <v>302</v>
       </c>
       <c r="I29" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J29">
-        <v>9875314207648930</v>
+        <v>4820156792305140</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
         <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
-      </c>
-      <c r="D30" t="s">
-        <v>186</v>
+        <v>134</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F30" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G30" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H30" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="I30" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="J30">
-        <v>4820156792305140</v>
+        <v>6071382948560720</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" t="s">
-        <v>187</v>
+        <v>135</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F31" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="G31" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H31" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="I31" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="J31">
-        <v>6071382948560720</v>
+        <v>9150628304783120</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
-      </c>
-      <c r="D32" t="s">
-        <v>188</v>
+        <v>136</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F32" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G32" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H32" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="I32" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="J32">
-        <v>9150628304783120</v>
+        <v>7041935621843950</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
-      </c>
-      <c r="D33" t="s">
-        <v>189</v>
+        <v>137</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F33" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="G33" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H33" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="I33" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="J33">
-        <v>7041935621843950</v>
+        <v>5186932470192740</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" t="s">
-        <v>190</v>
+        <v>138</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F34" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G34" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H34" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="I34" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="J34">
-        <v>5186932470192740</v>
+        <v>1328957640485920</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
-      </c>
-      <c r="D35" t="s">
-        <v>191</v>
+        <v>139</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F35" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="G35" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H35" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="I35" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="J35">
-        <v>1328957640485920</v>
+        <v>2490186753028610</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" t="s">
-        <v>192</v>
+        <v>140</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="F36" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G36" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H36" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I36" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="J36">
-        <v>2490186753028610</v>
+        <v>7836190548274100</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" t="s">
-        <v>193</v>
+        <v>141</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="F37" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="G37" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H37" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="I37" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J37">
-        <v>7836190548274100</v>
+        <v>6492187355928370</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" t="s">
-        <v>194</v>
+        <v>142</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F38" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G38" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H38" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I38" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="J38">
-        <v>6492187355928370</v>
+        <v>2705638901473590</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s">
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" t="s">
-        <v>195</v>
+        <v>143</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="F39" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="G39" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H39" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="I39" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="J39">
-        <v>2705638901473590</v>
+        <v>8029347165294610</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>146</v>
-      </c>
-      <c r="D40" t="s">
-        <v>196</v>
+        <v>144</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="F40" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G40" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H40" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="I40" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="J40">
-        <v>8029347165294610</v>
+        <v>3859015278630490</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>147</v>
-      </c>
-      <c r="D41" t="s">
-        <v>197</v>
+        <v>145</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F41" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="G41" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="H41" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="I41" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="J41">
-        <v>3859015278630490</v>
+        <v>7216093845723140</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>148</v>
-      </c>
-      <c r="D42" t="s">
-        <v>198</v>
+        <v>146</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="F42" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G42" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H42" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I42" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="J42">
-        <v>7216093845723140</v>
+        <v>5901867425096310</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B43" t="s">
         <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>149</v>
-      </c>
-      <c r="D43" t="s">
-        <v>199</v>
+        <v>147</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F43" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="G43" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H43" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="I43" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="J43">
-        <v>5901867425096310</v>
+        <v>3647105298017520</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s">
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" t="s">
-        <v>200</v>
+        <v>148</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F44" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G44" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H44" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="I44" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="J44">
-        <v>3647105298017520</v>
+        <v>7390184639576020</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
         <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>151</v>
-      </c>
-      <c r="D45" t="s">
-        <v>201</v>
+        <v>149</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F45" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="G45" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H45" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="I45" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J45">
-        <v>7390184639576020</v>
+        <v>4819736202850460</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
         <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>152</v>
-      </c>
-      <c r="D46" t="s">
-        <v>202</v>
+        <v>150</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F46" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G46" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H46" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="I46" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="J46">
-        <v>4819736202850460</v>
+        <v>1582463097586390</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B47" t="s">
         <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>153</v>
-      </c>
-      <c r="D47" t="s">
-        <v>203</v>
+        <v>151</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F47" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="G47" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H47" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I47" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="J47">
-        <v>1582463097586390</v>
+        <v>6704385912742050</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
         <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>154</v>
-      </c>
-      <c r="D48" t="s">
-        <v>204</v>
+        <v>152</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F48" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G48" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H48" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="I48" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="J48">
-        <v>6704385912742050</v>
+        <v>2483659107824790</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B49" t="s">
         <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>155</v>
-      </c>
-      <c r="D49" t="s">
-        <v>205</v>
+        <v>153</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F49" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="G49" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H49" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I49" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="J49">
-        <v>2483659107824790</v>
+        <v>9130587425640830</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B50" t="s">
         <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>156</v>
-      </c>
-      <c r="D50" t="s">
-        <v>206</v>
+        <v>154</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F50" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G50" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H50" t="s">
         <v>309</v>
       </c>
       <c r="I50" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="J50">
-        <v>9130587425640830</v>
+        <v>3058746520317940</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>410</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>411</v>
       </c>
       <c r="C51" t="s">
-        <v>157</v>
-      </c>
-      <c r="D51" t="s">
-        <v>207</v>
+        <v>412</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>413</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F51" t="s">
+        <v>414</v>
+      </c>
+      <c r="G51" t="s">
+        <v>415</v>
+      </c>
+      <c r="H51" t="s">
+        <v>416</v>
+      </c>
+      <c r="I51" t="s">
         <v>417</v>
       </c>
-      <c r="G51" t="s">
-        <v>300</v>
-      </c>
-      <c r="H51" t="s">
-        <v>315</v>
-      </c>
-      <c r="I51" t="s">
-        <v>367</v>
-      </c>
-      <c r="J51">
-        <v>3058746520317940</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D51" r:id="rId1" xr:uid="{FB21E12C-7C47-4D6C-A77D-070037876594}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
--- a/datas/artists.xlsx
+++ b/datas/artists.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarvar\Desktop\INHA\5th Semester\database design\team_project\datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8347BDB1-440D-4B3E-81A4-7524A8739392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="PvokFFpVoMBD5e6ti6Y0j+B35XCsxSllb6TWhN5vKzY="/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -27,1287 +22,1300 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="416">
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>full_name</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>date_joined</t>
-  </si>
-  <si>
-    <t>profile_picture</t>
-  </si>
-  <si>
-    <t>bio</t>
-  </si>
-  <si>
-    <t>genre</t>
-  </si>
-  <si>
-    <t>certification_code</t>
-  </si>
-  <si>
-    <t>bank_info</t>
-  </si>
-  <si>
-    <t>ariana_grande23</t>
-  </si>
-  <si>
-    <t>Ariana Grande</t>
-  </si>
-  <si>
-    <t>ariana.Gr4nde23</t>
-  </si>
-  <si>
-    <t>ariana.Gr4nde23_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2021-05-17</t>
-  </si>
-  <si>
-    <t>media/user_profile/Ariana_Grande.png</t>
-  </si>
-  <si>
-    <t>A pop powerhouse with a remarkable vocal range, known for her iconic whistle notes and chart-topping hits.</t>
-  </si>
-  <si>
-    <t>Pop</t>
-  </si>
-  <si>
-    <t>A3D5T</t>
-  </si>
-  <si>
-    <t>ed_sheeran_19</t>
-  </si>
-  <si>
-    <t>Ed Sheeran</t>
-  </si>
-  <si>
-    <t>ed.Sh33ran.19</t>
-  </si>
-  <si>
-    <t>ed.Sh33ran.19_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2022-07-23</t>
-  </si>
-  <si>
-    <t>media/user_profile/Ed_Sheeran.jpg</t>
-  </si>
-  <si>
-    <t>A British singer-songwriter who rose to fame with heartfelt ballads and has continued to break records with his soulful music.</t>
-  </si>
-  <si>
-    <t>Soul</t>
-  </si>
-  <si>
-    <t>G7B2H</t>
-  </si>
-  <si>
-    <t>taylorswift_13</t>
-  </si>
-  <si>
-    <t>Taylor Swift</t>
-  </si>
-  <si>
-    <t>tAyL0r.Sw1ft13</t>
-  </si>
-  <si>
-    <t>tAyL0r.Sw1ft13_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2021-12-28</t>
-  </si>
-  <si>
-    <t>media/user_profile/Taylor_Swift.png</t>
-  </si>
-  <si>
-    <t>A globally acclaimed singer-songwriter, known for her deeply personal lyrics and ability to cross multiple music genres with ease.</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>P4Q2W</t>
-  </si>
-  <si>
-    <t>drake_ov0</t>
-  </si>
-  <si>
-    <t>Drake</t>
-  </si>
-  <si>
-    <t>drake.0vO99</t>
-  </si>
-  <si>
-    <t>drake.0vO99_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-03-22</t>
-  </si>
-  <si>
-    <t>media/user_profile/drake.jpg</t>
-  </si>
-  <si>
-    <t>A global icon in hip-hop and R&amp;B, known for his chart-topping albums and collaborations with other artists across genres.</t>
-  </si>
-  <si>
-    <t>R&amp;B</t>
-  </si>
-  <si>
-    <t>M1X7L</t>
-  </si>
-  <si>
-    <t>billie_eilish_7</t>
-  </si>
-  <si>
-    <t>Billie Eilish</t>
-  </si>
-  <si>
-    <t>b1llie.E1lish7</t>
-  </si>
-  <si>
-    <t>b1llie.E1lish7_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2021-09-15</t>
-  </si>
-  <si>
-    <t>media/user_profile/Billie_Eilish.jpg</t>
-  </si>
-  <si>
-    <t>A young pop sensation whose haunting, emotional songs and unique style have made her a leader in alternative pop.</t>
-  </si>
-  <si>
-    <t>Indie Pop</t>
-  </si>
-  <si>
-    <t>F8J4V</t>
-  </si>
-  <si>
-    <t>justin_bieber_95</t>
-  </si>
-  <si>
-    <t>Justin Bieber</t>
-  </si>
-  <si>
-    <t>jUstIn.B13eber</t>
-  </si>
-  <si>
-    <t>jUstIn.B13eber_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2021-07-25</t>
-  </si>
-  <si>
-    <t>media/user_profile/justin_bieber.jpg</t>
-  </si>
-  <si>
-    <t>Once a teen pop star, now a seasoned artist whose evolution in both music and personal life has kept fans captivated.</t>
-  </si>
-  <si>
-    <t>Z2B6Y</t>
-  </si>
-  <si>
-    <t>harry_styles_01</t>
-  </si>
-  <si>
-    <t>Harry Styles</t>
-  </si>
-  <si>
-    <t>hArry.Styl3s01</t>
-  </si>
-  <si>
-    <t>hArry.Styl3s01_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2022-05-15</t>
-  </si>
-  <si>
-    <t>media/user_profile/Harry_Styles.jpg</t>
-  </si>
-  <si>
-    <t>Formerly a member of One Direction, he now embraces a solo career with eclectic sounds blending rock, pop, and folk.</t>
-  </si>
-  <si>
-    <t>Folk</t>
-  </si>
-  <si>
-    <t>W5U9P</t>
-  </si>
-  <si>
-    <t>rihanna_rihanna5</t>
-  </si>
-  <si>
-    <t>Rihanna</t>
-  </si>
-  <si>
-    <t>rihaNna.R1h4nna</t>
-  </si>
-  <si>
-    <t>rihaNna.R1h4nna_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2021-06-03</t>
-  </si>
-  <si>
-    <t>media/user_profile/Rihanna.jpg</t>
-  </si>
-  <si>
-    <t>A multi-talented artist whose R&amp;B and pop hits, along with her fashion sense, have made her a cultural and style icon.</t>
-  </si>
-  <si>
-    <t>T7V1E</t>
-  </si>
-  <si>
-    <t>the_weeknd_2024</t>
-  </si>
-  <si>
-    <t>The Weeknd</t>
-  </si>
-  <si>
-    <t>th3.W33knd.24</t>
-  </si>
-  <si>
-    <t>th3.W33knd.24_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2022-04-10</t>
-  </si>
-  <si>
-    <t>media/user_profile/The_Weeknd.jpg</t>
-  </si>
-  <si>
-    <t>Known for his smooth, falsetto voice, he’s created a string of hits blending R&amp;B and pop that have captured hearts worldwide.</t>
-  </si>
-  <si>
-    <t>J3M8R</t>
-  </si>
-  <si>
-    <t>shawn_mendes_77</t>
-  </si>
-  <si>
-    <t>Shawn Mendes</t>
-  </si>
-  <si>
-    <t>shawn.M3ndes77</t>
-  </si>
-  <si>
-    <t>shawn.M3ndes77_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2022-02-17</t>
-  </si>
-  <si>
-    <t>media/user_profile/Shawn_Mendes.png</t>
-  </si>
-  <si>
-    <t>A Canadian singer-songwriter with soulful pop anthems, who has captivated listeners with his heartfelt lyrics and gentle demeanor.</t>
-  </si>
-  <si>
-    <t>N2P9Q</t>
-  </si>
-  <si>
-    <t>lady_gaga_2023</t>
-  </si>
-  <si>
-    <t>Lady Gaga</t>
-  </si>
-  <si>
-    <t>lady.Ga2023</t>
-  </si>
-  <si>
-    <t>lady.Ga2023_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2022-12-26</t>
-  </si>
-  <si>
-    <t>media/user_profile/Lady_Gaga.jpg</t>
-  </si>
-  <si>
-    <t>A pop icon who pushes the boundaries of music and fashion, combining powerful vocals with avant-garde performance.</t>
-  </si>
-  <si>
-    <t>K6G3T</t>
-  </si>
-  <si>
-    <t>selena_gomez_9</t>
-  </si>
-  <si>
-    <t>Selena Gomez</t>
-  </si>
-  <si>
-    <t>seLena.G0mez9</t>
-  </si>
-  <si>
-    <t>seLena.G0mez9_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-02-16</t>
-  </si>
-  <si>
-    <t>media/user_profile/Selena_Gomez.jpg</t>
-  </si>
-  <si>
-    <t>A successful pop star and actress, she has used her platform to advocate for mental health and raise awareness on social issues.</t>
-  </si>
-  <si>
-    <t>Dance-Pop</t>
-  </si>
-  <si>
-    <t>R4V1F</t>
-  </si>
-  <si>
-    <t>post_malone_88</t>
-  </si>
-  <si>
-    <t>Post Malone</t>
-  </si>
-  <si>
-    <t>p0st.Mal0ne88</t>
-  </si>
-  <si>
-    <t>p0st.Mal0ne88_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2021-10-02</t>
-  </si>
-  <si>
-    <t>media/user_profile/Post_Malone.jpg</t>
-  </si>
-  <si>
-    <t>With a fusion of hip-hop and rock influences, he’s known for his catchy hooks and genre-blending music that attracts diverse audiences.</t>
-  </si>
-  <si>
-    <t>Hip-Hop</t>
-  </si>
-  <si>
-    <t>L9Z5K</t>
-  </si>
-  <si>
-    <t>sam_smith_94</t>
-  </si>
-  <si>
-    <t>Sam Smith</t>
-  </si>
-  <si>
-    <t>sAm.Sm1th94</t>
-  </si>
-  <si>
-    <t>sAm.Sm1th94_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2021-12-10</t>
-  </si>
-  <si>
-    <t>media/user_profile/Sam_Smith.jpg</t>
-  </si>
-  <si>
-    <t>An artist whose emotional ballads and soulful voice have earned him numerous Grammy awards and a loyal fan base.</t>
-  </si>
-  <si>
-    <t>X7A2J</t>
-  </si>
-  <si>
-    <t>dua_lipa_42</t>
-  </si>
-  <si>
-    <t>Dua Lipa</t>
-  </si>
-  <si>
-    <t>duA.Lip42</t>
-  </si>
-  <si>
-    <t>duA.Lip42_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2022-01-14</t>
-  </si>
-  <si>
-    <t>media/user_profile/Dua_Lipa.jpg</t>
-  </si>
-  <si>
-    <t>A rising star in the pop world, known for her dancefloor anthems and empowering messages of independence and strength.</t>
-  </si>
-  <si>
-    <t>Q3N5P</t>
-  </si>
-  <si>
-    <t>eminem_shady</t>
-  </si>
-  <si>
-    <t>Eminem</t>
-  </si>
-  <si>
-    <t>em1n3m.Shady</t>
-  </si>
-  <si>
-    <t>em1n3m.Shady_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2021-02-02</t>
-  </si>
-  <si>
-    <t>media/user_profile/Eminem.jpg</t>
-  </si>
-  <si>
-    <t>A rap legend whose raw lyrics and boundary-pushing content have made him one of the most influential artists in the industry.</t>
-  </si>
-  <si>
-    <t>Rap</t>
-  </si>
-  <si>
-    <t>B1T6G</t>
-  </si>
-  <si>
-    <t>adele_21</t>
-  </si>
-  <si>
-    <t>Adele</t>
-  </si>
-  <si>
-    <t>del.21Love</t>
-  </si>
-  <si>
-    <t>del.21Love_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2021-03-26</t>
-  </si>
-  <si>
-    <t>media/user_profile/Adele.jpg</t>
-  </si>
-  <si>
-    <t>A powerhouse balladeer known for her incredible vocal range and emotional performances that resonate with audiences worldwide.</t>
-  </si>
-  <si>
-    <t>H4Z8Y</t>
-  </si>
-  <si>
-    <t>katy_perry_09</t>
-  </si>
-  <si>
-    <t>Katy Perry</t>
-  </si>
-  <si>
-    <t>katy.P3rry09</t>
-  </si>
-  <si>
-    <t>katy.P3rry09_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2021-03-09</t>
-  </si>
-  <si>
-    <t>media/user_profile/Katy_Perry.jpg</t>
-  </si>
-  <si>
-    <t>A pop star with a flair for colorful fashion and catchy tunes, whose ability to evolve musically has kept her a fan favorite.</t>
-  </si>
-  <si>
-    <t>C9M1X</t>
-  </si>
-  <si>
-    <t>mariah_carey_5</t>
-  </si>
-  <si>
-    <t>Mariah Carey</t>
-  </si>
-  <si>
-    <t>mariah.Crey5</t>
-  </si>
-  <si>
-    <t>mariah.Crey5_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2022-09-30</t>
-  </si>
-  <si>
-    <t>media/user_profile/Mariah_Carey.jpg</t>
-  </si>
-  <si>
-    <t>A legendary vocalist with a timeless voice, she’s known for her powerful ballads and enduring influence on pop music.</t>
-  </si>
-  <si>
-    <t>S5A3V</t>
-  </si>
-  <si>
-    <t>bruno_mars_24</t>
-  </si>
-  <si>
-    <t>Bruno Mars</t>
-  </si>
-  <si>
-    <t>brUno.Mars24</t>
-  </si>
-  <si>
-    <t>brUno.Mars24_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2021-08-11</t>
-  </si>
-  <si>
-    <t>media/user_profile/Bruno_Mars.jpg</t>
-  </si>
-  <si>
-    <t>A funky pop artist with infectious tunes and energetic performances, known for his smooth vocals and danceable hits.</t>
-  </si>
-  <si>
-    <t>Funk</t>
-  </si>
-  <si>
-    <t>W8L2P</t>
-  </si>
-  <si>
-    <t>khalid_89</t>
-  </si>
-  <si>
-    <t>Khalid</t>
-  </si>
-  <si>
-    <t>khalid.Music1</t>
-  </si>
-  <si>
-    <t>khalid.Music1_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2021-10-19</t>
-  </si>
-  <si>
-    <t>media/user_profile/Khalid.jpg</t>
-  </si>
-  <si>
-    <t>An R&amp;B artist whose soulful melodies and thought-provoking lyrics have gained him widespread acclaim in both mainstream and indie circles.</t>
-  </si>
-  <si>
-    <t>P3J9T</t>
-  </si>
-  <si>
-    <t>halsey_2023</t>
-  </si>
-  <si>
-    <t>Halsey</t>
-  </si>
-  <si>
-    <t>halsey.2023</t>
-  </si>
-  <si>
-    <t>halsey.2023_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-12-12</t>
-  </si>
-  <si>
-    <t>media/user_profile/Halsey.jpg</t>
-  </si>
-  <si>
-    <t>A dynamic artist blending alternative pop with deeply personal lyrics that resonate with fans across generations.</t>
-  </si>
-  <si>
-    <t>R7G4F</t>
-  </si>
-  <si>
-    <t>frank_ocean_23</t>
-  </si>
-  <si>
-    <t>Frank Ocean</t>
-  </si>
-  <si>
-    <t>frank.Ocean23</t>
-  </si>
-  <si>
-    <t>frank.Ocean23_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2022-01-31</t>
-  </si>
-  <si>
-    <t>media/user_profile/Frank_Ocean.jpg</t>
-  </si>
-  <si>
-    <t>A highly influential R&amp;B artist, known for his poetic lyricism and smooth vocals, consistently delivering emotionally charged tracks.</t>
-  </si>
-  <si>
-    <t>N6A2K</t>
-  </si>
-  <si>
-    <t>travis_scott_11</t>
-  </si>
-  <si>
-    <t>Travis Scott</t>
-  </si>
-  <si>
-    <t>travis.Scott11</t>
-  </si>
-  <si>
-    <t>travis.Scott11_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-11-25</t>
-  </si>
-  <si>
-    <t>media/user_profile/Travis_Scott.jpg</t>
-  </si>
-  <si>
-    <t>A rapper and producer whose music blends trap, rap, and electronic elements, earning him millions of fans and a global following.</t>
-  </si>
-  <si>
-    <t>Trap</t>
-  </si>
-  <si>
-    <t>D9L5Z</t>
-  </si>
-  <si>
-    <t>cardi_b_123</t>
-  </si>
-  <si>
-    <t>Cardi B</t>
-  </si>
-  <si>
-    <t>cardi.B123</t>
-  </si>
-  <si>
-    <t>cardi.B123_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2021-06-20</t>
-  </si>
-  <si>
-    <t>media/user_profile/Cardi_B.jpg</t>
-  </si>
-  <si>
-    <t>A bold and outspoken rapper who has redefined the female presence in hip-hop with her unapologetic style and empowering anthems.</t>
-  </si>
-  <si>
-    <t>Y8J1M</t>
-  </si>
-  <si>
-    <t>sia_444</t>
-  </si>
-  <si>
-    <t>Sia</t>
-  </si>
-  <si>
-    <t>si.444Love</t>
-  </si>
-  <si>
-    <t>si.444Love_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2022-08-09</t>
-  </si>
-  <si>
-    <t>media/user_profile/Sia.jpg</t>
-  </si>
-  <si>
-    <t>A singer known for her powerful voice and unique creative direction, often pushing the boundaries of pop and experimental music.</t>
-  </si>
-  <si>
-    <t>H4W2N</t>
-  </si>
-  <si>
-    <t>john_legend_56</t>
-  </si>
-  <si>
-    <t>John Legend</t>
-  </si>
-  <si>
-    <t>j0hn.Leg3nd56</t>
-  </si>
-  <si>
-    <t>j0hn.Leg3nd56_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2022-03-07</t>
-  </si>
-  <si>
-    <t>media/user_profile/John_Legend.jpg</t>
-  </si>
-  <si>
-    <t>A soul singer and piano virtuoso, who has captivated audiences for years with his heartfelt ballads and timeless sound.</t>
-  </si>
-  <si>
-    <t>K5X9A</t>
-  </si>
-  <si>
-    <t>lizzo_12</t>
-  </si>
-  <si>
-    <t>Lizzo</t>
-  </si>
-  <si>
-    <t>Lizzo.Rampage</t>
-  </si>
-  <si>
-    <t>Lizzo.Rampage_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2022-04-28</t>
-  </si>
-  <si>
-    <t>media/user_profile/Lizzo.jpg</t>
-  </si>
-  <si>
-    <t>A body-positive anthem creator, her powerful voice and confidence have turned her into a pop culture phenomenon.</t>
-  </si>
-  <si>
-    <t>V7Z1R</t>
-  </si>
-  <si>
-    <t>olivia_rodrigo_14</t>
-  </si>
-  <si>
-    <t>Olivia Rodrigo</t>
-  </si>
-  <si>
-    <t>ol1vIa.Rodr1g0</t>
-  </si>
-  <si>
-    <t>ol1vIa.Rodr1g0_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2021-07-08</t>
-  </si>
-  <si>
-    <t>media/user_profile/Olivia_Rodrigo.jpg</t>
-  </si>
-  <si>
-    <t>A breakout teen pop sensation whose relatable lyrics and emotional music have earned her a dedicated fan base across the globe.</t>
-  </si>
-  <si>
-    <t>C8P3J</t>
-  </si>
-  <si>
-    <t>shawn_mendes_22</t>
-  </si>
-  <si>
-    <t>shawn.M3ndes22</t>
-  </si>
-  <si>
-    <t>shawn.M3ndes22_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2022-06-01</t>
-  </si>
-  <si>
-    <t>Known for his heartfelt ballads and genuine stage presence, he’s become one of the most adored pop artists of his generation.</t>
-  </si>
-  <si>
-    <t>M4Q2Y</t>
-  </si>
-  <si>
-    <t>camila_cabello_17</t>
-  </si>
-  <si>
-    <t>Camila Cabello</t>
-  </si>
-  <si>
-    <t>camila.Cabello</t>
-  </si>
-  <si>
-    <t>camila.Cabello_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2022-03-24</t>
-  </si>
-  <si>
-    <t>media/user_profile/Camila_Cabello.png</t>
-  </si>
-  <si>
-    <t>A former member of Fifth Harmony, she’s now a solo artist making waves in Latin and pop music with her unique blend of both styles.</t>
-  </si>
-  <si>
-    <t>Latin</t>
-  </si>
-  <si>
-    <t>B1Z8G</t>
-  </si>
-  <si>
-    <t>megantheestallion_25</t>
-  </si>
-  <si>
-    <t>Megan Thee Stallion</t>
-  </si>
-  <si>
-    <t>Megn.Theestall25</t>
-  </si>
-  <si>
-    <t>Megn.Theestall25_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2021-02-19</t>
-  </si>
-  <si>
-    <t>media/user_profile/Megan_Thee_Stallion.jpg</t>
-  </si>
-  <si>
-    <t>A rapper known for her confident, empowering lyrics and unapologetic attitude, she’s quickly become a force in the rap scene.</t>
-  </si>
-  <si>
-    <t>L9T4K</t>
-  </si>
-  <si>
-    <t>usher_2021</t>
-  </si>
-  <si>
-    <t>Usher</t>
-  </si>
-  <si>
-    <t>Usher.May2</t>
-  </si>
-  <si>
-    <t>Usher.May2_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2021-08-29</t>
-  </si>
-  <si>
-    <t>media/user_profile/Usher.jpg</t>
-  </si>
-  <si>
-    <t>A legendary figure in R&amp;B whose smooth vocals and emotional depth have made him a staple in the music industry for decades.</t>
-  </si>
-  <si>
-    <t>Q6A3P</t>
-  </si>
-  <si>
-    <t>chris_brown_88</t>
-  </si>
-  <si>
-    <t>Chris Brown</t>
-  </si>
-  <si>
-    <t>chR1s.Brown88</t>
-  </si>
-  <si>
-    <t>chR1s.Brown88_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2022-06-19</t>
-  </si>
-  <si>
-    <t>media/user_profile/Chris Brown.jpg</t>
-  </si>
-  <si>
-    <t>A multi-talented pop and R&amp;B artist whose energetic performances and danceable hits have made him an international icon.</t>
-  </si>
-  <si>
-    <t>F2V7Y</t>
-  </si>
-  <si>
-    <t>backstreet_boys_98</t>
-  </si>
-  <si>
-    <t>Backstreet Boys</t>
-  </si>
-  <si>
-    <t>backstr33t.Boy98</t>
-  </si>
-  <si>
-    <t>backstr33t.Boy98_me@gmail.com</t>
-  </si>
-  <si>
-    <t>media/user_profile/Backstreet_Boys.jpg</t>
-  </si>
-  <si>
-    <t>An iconic boy band of the '90s, known for their catchy pop hits that continue to be a nostalgic favorite for fans worldwide.</t>
-  </si>
-  <si>
-    <t>X5R1J</t>
-  </si>
-  <si>
-    <t>shakira_23</t>
-  </si>
-  <si>
-    <t>Shakira</t>
-  </si>
-  <si>
-    <t>shAk1ra.23Love</t>
-  </si>
-  <si>
-    <t>shAk1ra.23Love_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-01-12</t>
-  </si>
-  <si>
-    <t>media/user_profile/Shakira.jpg</t>
-  </si>
-  <si>
-    <t>A Latin pop star known for her incredible dancing skills and international hits, whose influence spans across music and entertainment.</t>
-  </si>
-  <si>
-    <t>Latin Pop</t>
-  </si>
-  <si>
-    <t>W8M9P</t>
-  </si>
-  <si>
-    <t>pitbull_305</t>
-  </si>
-  <si>
-    <t>Pitbull</t>
-  </si>
-  <si>
-    <t>pitbull.305</t>
-  </si>
-  <si>
-    <t>pitbull.305_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2021-11-06</t>
-  </si>
-  <si>
-    <t>media/user_profile/Pitbull.jpg</t>
-  </si>
-  <si>
-    <t>A rap artist who’s known for his anthemic songs and “Mr. Worldwide” persona, bringing infectious beats to global audiences.</t>
-  </si>
-  <si>
-    <t>Dance</t>
-  </si>
-  <si>
-    <t>D6Z3T</t>
-  </si>
-  <si>
-    <t>celine_dion_3</t>
-  </si>
-  <si>
-    <t>Celine Dion</t>
-  </si>
-  <si>
-    <t>cEl1n3.Dion03</t>
-  </si>
-  <si>
-    <t>cEl1n3.Dion03_me@gmail.com</t>
-  </si>
-  <si>
-    <t>media/user_profile/Celine_Dion.jpg</t>
-  </si>
-  <si>
-    <t>A powerhouse vocalist whose emotional ballads and timeless music have made her one of the best-selling music artists of all time.</t>
-  </si>
-  <si>
-    <t>Y7L4N</t>
-  </si>
-  <si>
-    <t>kelly_clarkson_01</t>
-  </si>
-  <si>
-    <t>Kelly Clarkson</t>
-  </si>
-  <si>
-    <t>k3lly.Clarkson1</t>
-  </si>
-  <si>
-    <t>k3lly.Clarkson1_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2022-12-09</t>
-  </si>
-  <si>
-    <t>media/user_profile/Kelly_Clarkson.jpg</t>
-  </si>
-  <si>
-    <t>A pop-rock artist who rose to fame as a reality TV winner, later achieving success with her powerful vocals and relatable music.</t>
-  </si>
-  <si>
-    <t>Rock</t>
-  </si>
-  <si>
-    <t>J2P8K</t>
-  </si>
-  <si>
-    <t>khalid_music_21</t>
-  </si>
-  <si>
-    <t>khalid.Music21</t>
-  </si>
-  <si>
-    <t>khalid.Music21_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2021-11-23</t>
-  </si>
-  <si>
-    <t>A soulful R&amp;B artist whose melodic storytelling and smooth voice have made him a household name in the music industry.</t>
-  </si>
-  <si>
-    <t>G9A1Q</t>
-  </si>
-  <si>
-    <t>tones_and_i_32</t>
-  </si>
-  <si>
-    <t>Tones and I</t>
-  </si>
-  <si>
-    <t>tones.AndI32</t>
-  </si>
-  <si>
-    <t>tones.AndI32_me@gmail.com</t>
-  </si>
-  <si>
-    <t>media/user_profile/Tones_and_I.jpg</t>
-  </si>
-  <si>
-    <t>A breakout artist known for her unique voice and whimsical approach to music, blending indie pop with modern sounds.</t>
-  </si>
-  <si>
-    <t>S5B2F</t>
-  </si>
-  <si>
-    <t>niall_horan_5</t>
-  </si>
-  <si>
-    <t>Niall Horan</t>
-  </si>
-  <si>
-    <t>niall.Horn5</t>
-  </si>
-  <si>
-    <t>niall.Horn5_me@gmail.com</t>
-  </si>
-  <si>
-    <t>media/user_profile/Nial_Horan.jpg</t>
-  </si>
-  <si>
-    <t>A former member of One Direction, he has embraced his solo career with folk-influenced sounds and heartwarming lyrics.</t>
-  </si>
-  <si>
-    <t>V3X9R</t>
-  </si>
-  <si>
-    <t>jonas_brothers_7</t>
-  </si>
-  <si>
-    <t>Jonas Brothers</t>
-  </si>
-  <si>
-    <t>jons.Bros7</t>
-  </si>
-  <si>
-    <t>jons.Bros7_me@gmail.com</t>
-  </si>
-  <si>
-    <t>media/user_profile/Jonas_Brothers.jpg</t>
-  </si>
-  <si>
-    <t>A sibling trio who rose to fame with catchy pop-rock tunes, known for their close-knit family bond and evolving sound.</t>
-  </si>
-  <si>
-    <t>Pop-Rock</t>
-  </si>
-  <si>
-    <t>R6M1J</t>
-  </si>
-  <si>
-    <t>maroon_5_fan</t>
-  </si>
-  <si>
-    <t>Maroon 5</t>
-  </si>
-  <si>
-    <t>maroon.5Fan</t>
-  </si>
-  <si>
-    <t>maroon.5Fan_me@gmail.com</t>
-  </si>
-  <si>
-    <t>media/user_profile/Maroon_5.jpg</t>
-  </si>
-  <si>
-    <t>A pop band known for their catchy hooks and energetic performances, with hits that have shaped the modern pop scene.</t>
-  </si>
-  <si>
-    <t>P4T7Y</t>
-  </si>
-  <si>
-    <t>fleetwood_mac_99</t>
-  </si>
-  <si>
-    <t>Fleetwood Mac</t>
-  </si>
-  <si>
-    <t>fleetwood.Mac99</t>
-  </si>
-  <si>
-    <t>fleetwood.Mac99_me@gmail.com</t>
-  </si>
-  <si>
-    <t>media/user_profile/Fleetwood_Mac.jpg</t>
-  </si>
-  <si>
-    <t>A legendary rock band from the '70s, known for their timeless songs and influence on the music industry that lasts to this day.</t>
-  </si>
-  <si>
-    <t>L3N5G</t>
-  </si>
-  <si>
-    <t>pink_rose_77</t>
-  </si>
-  <si>
-    <t>Pink</t>
-  </si>
-  <si>
-    <t>p1nk.Rose77!</t>
-  </si>
-  <si>
-    <t>p1nk.Rose77!_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2022-06-12</t>
-  </si>
-  <si>
-    <t>media/user_profile/Pink.jpg</t>
-  </si>
-  <si>
-    <t>A pop-rock artist known for her fierce attitude and genre-defying music, blending rock, pop, and punk influences.</t>
-  </si>
-  <si>
-    <t>Punk</t>
-  </si>
-  <si>
-    <t>K2X9A</t>
-  </si>
-  <si>
-    <t>alicia_keys_1</t>
-  </si>
-  <si>
-    <t>Alicia Keys</t>
-  </si>
-  <si>
-    <t>alice.Keys01</t>
-  </si>
-  <si>
-    <t>alice.Keys01_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2021-07-24</t>
-  </si>
-  <si>
-    <t>media/user_profile/Alicia Keys.jpg</t>
-  </si>
-  <si>
-    <t>A timeless voice in soul and R&amp;B, whose elegant performances and raw emotion have made her one of the genre's most respected figures.</t>
-  </si>
-  <si>
-    <t>M7Y1P</t>
-  </si>
-  <si>
-    <t>lil_nas_x_33</t>
-  </si>
-  <si>
-    <t>Lil Nas X</t>
-  </si>
-  <si>
-    <t>lil.NsX33</t>
-  </si>
-  <si>
-    <t>lil.NsX33_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-01-10</t>
-  </si>
-  <si>
-    <t>media/user_profile/Lil_Nas_X.jpg</t>
-  </si>
-  <si>
-    <t>A trailblazing rapper known for breaking boundaries with his genre-blending music and unapologetic personality.</t>
-  </si>
-  <si>
-    <t>B6T4F</t>
-  </si>
-  <si>
-    <t>imagine_dragons_21</t>
-  </si>
-  <si>
-    <t>Imagine Dragons</t>
-  </si>
-  <si>
-    <t>imagine.Dragons</t>
-  </si>
-  <si>
-    <t>imagine.Dragons_me@gmail.com</t>
-  </si>
-  <si>
-    <t>2021-11-09</t>
-  </si>
-  <si>
-    <t>media/user_profile/Imagine_Dragons.jpg</t>
-  </si>
-  <si>
-    <t>A rock band known for their anthem-like songs and huge sound, they’ve become one of the biggest modern rock acts of the 21st century.</t>
-  </si>
-  <si>
-    <t>W1Z5R</t>
-  </si>
-  <si>
-    <t>hiroyuki_1</t>
-  </si>
-  <si>
-    <t>Hiroyuki Sawano</t>
-  </si>
-  <si>
-    <t>hir0yuki.1</t>
-  </si>
-  <si>
-    <t>hiroyuki_1@gmail.com</t>
-  </si>
-  <si>
-    <t>media/user_profile/Hiroyuki_Sawano.jpg</t>
-  </si>
-  <si>
-    <t>a Japanese composer, arranger, lyricist, pianist, and music producer best known for his work on many anime series, video games, television dramas, and movies</t>
-  </si>
-  <si>
-    <t>Orchestral</t>
-  </si>
-  <si>
-    <t>RWEF8</t>
+    <t xml:space="preserve">username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_joined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profile_picture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">certification_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bank_info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ariana_grande23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ariana Grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ariana.Gr4nde23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ariana.Gr4nde23_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Ariana_Grande.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pop powerhouse with a remarkable vocal range, known for her iconic whistle notes and chart-topping hits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3D5T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ed_sheeran_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ed Sheeran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ed.Sh33ran.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ed.Sh33ran.19_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-07-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Ed_Sheeran.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A British singer-songwriter who rose to fame with heartfelt ballads and has continued to break records with his soulful music.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G7B2H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taylorswift_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taylor Swift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tAyL0r.Sw1ft13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tAyL0r.Sw1ft13_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Taylor_Swift.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A globally acclaimed singer-songwriter, known for her deeply personal lyrics and ability to cross multiple music genres with ease.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P4Q2W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drake_ov0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drake.0vO99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drake.0vO99_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/drake.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A global icon in hip-hop and R&amp;B, known for his chart-topping albums and collaborations with other artists across genres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1X7L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">billie_eilish_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billie Eilish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b1llie.E1lish7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b1llie.E1lish7_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Billie_Eilish.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A young pop sensation whose haunting, emotional songs and unique style have made her a leader in alternative pop.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indie Pop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F8J4V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">justin_bieber_95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justin Bieber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jUstIn.B13eber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jUstIn.B13eber_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/justin_bieber.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once a teen pop star, now a seasoned artist whose evolution in both music and personal life has kept fans captivated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z2B6Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harry_styles_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harry Styles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hArry.Styl3s01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hArry.Styl3s01_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Harry_Styles.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formerly a member of One Direction, he now embraces a solo career with eclectic sounds blending rock, pop, and folk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W5U9P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rihanna_rihanna5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rihanna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rihaNna.R1h4nna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rihaNna.R1h4nna_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Rihanna.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A multi-talented artist whose R&amp;B and pop hits, along with her fashion sense, have made her a cultural and style icon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T7V1E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the_weeknd_2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Weeknd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">th3.W33knd.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">th3.W33knd.24_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/The_Weeknd.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known for his smooth, falsetto voice, he’s created a string of hits blending R&amp;B and pop that have captured hearts worldwide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J3M8R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shawn_mendes_77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shawn Mendes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shawn.M3ndes77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shawn.M3ndes77_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Shawn_Mendes.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Canadian singer-songwriter with soulful pop anthems, who has captivated listeners with his heartfelt lyrics and gentle demeanor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2P9Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lady_gaga_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lady Gaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lady.Ga2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lady.Ga2023_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Lady_Gaga.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pop icon who pushes the boundaries of music and fashion, combining powerful vocals with avant-garde performance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K6G3T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selena_gomez_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selena Gomez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seLena.G0mez9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seLena.G0mez9_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Selena_Gomez.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A successful pop star and actress, she has used her platform to advocate for mental health and raise awareness on social issues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dance-Pop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4V1F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">post_malone_88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post Malone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p0st.Mal0ne88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p0st.Mal0ne88_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Post_Malone.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With a fusion of hip-hop and rock influences, he’s known for his catchy hooks and genre-blending music that attracts diverse audiences.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hip-Hop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9Z5K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sam_smith_94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sam Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sAm.Sm1th94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sAm.Sm1th94_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Sam_Smith.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An artist whose emotional ballads and soulful voice have earned him numerous Grammy awards and a loyal fan base.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X7A2J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dua_lipa_42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dua Lipa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duA.Lip42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duA.Lip42_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Dua_Lipa.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A rising star in the pop world, known for her dancefloor anthems and empowering messages of independence and strength.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3N5P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eminem_shady</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eminem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">em1n3m.Shady</t>
+  </si>
+  <si>
+    <t xml:space="preserve">em1n3m.Shady_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Eminem.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A rap legend whose raw lyrics and boundary-pushing content have made him one of the most influential artists in the industry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1T6G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adele_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del.21Love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del.21Love_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Adele.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A powerhouse balladeer known for her incredible vocal range and emotional performances that resonate with audiences worldwide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H4Z8Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">katy_perry_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katy Perry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">katy.P3rry09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">katy.P3rry09_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Katy_Perry.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pop star with a flair for colorful fashion and catchy tunes, whose ability to evolve musically has kept her a fan favorite.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9M1X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mariah_carey_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariah Carey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mariah.Crey5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mariah.Crey5_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Mariah_Carey.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A legendary vocalist with a timeless voice, she’s known for her powerful ballads and enduring influence on pop music.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S5A3V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bruno_mars_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruno Mars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brUno.Mars24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brUno.Mars24_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Bruno_Mars.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A funky pop artist with infectious tunes and energetic performances, known for his smooth vocals and danceable hits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W8L2P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khalid_89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khalid.Music1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khalid.Music1_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Khalid.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An R&amp;B artist whose soulful melodies and thought-provoking lyrics have gained him widespread acclaim in both mainstream and indie circles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P3J9T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">halsey_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halsey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">halsey.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">halsey.2023_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Halsey.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dynamic artist blending alternative pop with deeply personal lyrics that resonate with fans across generations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7G4F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frank_ocean_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frank Ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frank.Ocean23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frank.Ocean23_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Frank_Ocean.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A highly influential R&amp;B artist, known for his poetic lyricism and smooth vocals, consistently delivering emotionally charged tracks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N6A2K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travis_scott_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travis Scott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travis.Scott11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travis.Scott11_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Travis_Scott.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A rapper and producer whose music blends trap, rap, and electronic elements, earning him millions of fans and a global following.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D9L5Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cardi_b_123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardi B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cardi.B123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cardi.B123_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Cardi_B.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bold and outspoken rapper who has redefined the female presence in hip-hop with her unapologetic style and empowering anthems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y8J1M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sia_444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">si.444Love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">si.444Love_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-08-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Sia.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A singer known for her powerful voice and unique creative direction, often pushing the boundaries of pop and experimental music.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H4W2N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">john_legend_56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Legend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j0hn.Leg3nd56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j0hn.Leg3nd56_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/John_Legend.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soul singer and piano virtuoso, who has captivated audiences for years with his heartfelt ballads and timeless sound.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K5X9A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lizzo_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lizzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lizzo.Rampage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lizzo.Rampage_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Lizzo.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A body-positive anthem creator, her powerful voice and confidence have turned her into a pop culture phenomenon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V7Z1R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">olivia_rodrigo_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olivia Rodrigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ol1vIa.Rodr1g0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ol1vIa.Rodr1g0_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Olivia_Rodrigo.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A breakout teen pop sensation whose relatable lyrics and emotional music have earned her a dedicated fan base across the globe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8P3J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shawn_mendes_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shawn.M3ndes22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shawn.M3ndes22_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known for his heartfelt ballads and genuine stage presence, he’s become one of the most adored pop artists of his generation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M4Q2Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">camila_cabello_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camila Cabello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">camila.Cabello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">camila.Cabello_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Camila_Cabello.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A former member of Fifth Harmony, she’s now a solo artist making waves in Latin and pop music with her unique blend of both styles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1Z8G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">megantheestallion_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megan Thee Stallion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megn.Theestall25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megn.Theestall25_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Megan_Thee_Stallion.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A rapper known for her confident, empowering lyrics and unapologetic attitude, she’s quickly become a force in the rap scene.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9T4K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usher_2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usher.May2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usher.May2_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Usher.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A legendary figure in R&amp;B whose smooth vocals and emotional depth have made him a staple in the music industry for decades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q6A3P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chris_brown_88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chR1s.Brown88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chR1s.Brown88_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Chris Brown.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A multi-talented pop and R&amp;B artist whose energetic performances and danceable hits have made him an international icon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F2V7Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backstreet_boys_98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backstreet Boys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backstr33t.Boy98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backstr33t.Boy98_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Backstreet_Boys.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An iconic boy band of the '90s, known for their catchy pop hits that continue to be a nostalgic favorite for fans worldwide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X5R1J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shakira_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shakira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shAk1ra.23Love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shAk1ra.23Love_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Shakira.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Latin pop star known for her incredible dancing skills and international hits, whose influence spans across music and entertainment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latin Pop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W8M9P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pitbull_305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pitbull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pitbull.305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pitbull.305_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Pitbull.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A rap artist who’s known for his anthemic songs and “Mr. Worldwide” persona, bringing infectious beats to global audiences.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6Z3T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">celine_dion_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celine Dion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cEl1n3.Dion03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cEl1n3.Dion03_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Celine_Dion.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A powerhouse vocalist whose emotional ballads and timeless music have made her one of the best-selling music artists of all time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y7L4N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kelly_clarkson_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelly Clarkson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k3lly.Clarkson1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k3lly.Clarkson1_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Kelly_Clarkson.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pop-rock artist who rose to fame as a reality TV winner, later achieving success with her powerful vocals and relatable music.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J2P8K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khalid_music_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khalid.Music21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khalid.Music21_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soulful R&amp;B artist whose melodic storytelling and smooth voice have made him a household name in the music industry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G9A1Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tones_and_i_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tones and I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tones.AndI32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tones.AndI32_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Tones_and_I.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A breakout artist known for her unique voice and whimsical approach to music, blending indie pop with modern sounds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S5B2F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">niall_horan_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niall Horan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">niall.Horn5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">niall.Horn5_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Nial_Horan.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A former member of One Direction, he has embraced his solo career with folk-influenced sounds and heartwarming lyrics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V3X9R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jonas_brothers_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonas Brothers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jons.Bros7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jons.Bros7_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Jonas_Brothers.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sibling trio who rose to fame with catchy pop-rock tunes, known for their close-knit family bond and evolving sound.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop-Rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6M1J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maroon_5_fan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maroon 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maroon.5Fan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maroon.5Fan_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Maroon_5.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pop band known for their catchy hooks and energetic performances, with hits that have shaped the modern pop scene.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P4T7Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fleetwood_mac_99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fleetwood Mac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fleetwood.Mac99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fleetwood.Mac99_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Fleetwood_Mac.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A legendary rock band from the '70s, known for their timeless songs and influence on the music industry that lasts to this day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3N5G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pink_rose_77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p1nk.Rose77!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p1nk.Rose77!_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Pink.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pop-rock artist known for her fierce attitude and genre-defying music, blending rock, pop, and punk influences.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K2X9A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alicia_keys_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alicia Keys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alice.Keys01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alice.Keys01_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Alicia Keys.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A timeless voice in soul and R&amp;B, whose elegant performances and raw emotion have made her one of the genre's most respected figures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M7Y1P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lil_nas_x_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lil Nas X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lil.NsX33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lil.NsX33_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Lil_Nas_X.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A trailblazing rapper known for breaking boundaries with his genre-blending music and unapologetic personality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B6T4F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imagine_dragons_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagine Dragons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imagine.Dragons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imagine.Dragons_me@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Imagine_Dragons.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A rock band known for their anthem-like songs and huge sound, they’ve become one of the biggest modern rock acts of the 21st century.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W1Z5R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiroyuki_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiroyuki Sawano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hir0yuki.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiroyuki_1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media/user_profile/Hiroyuki_Sawano.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a Japanese composer, arranger, lyricist, pianist, and music producer best known for his work on many anime series, video games, television dramas, and movies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orchestral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RWEF8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1319,7 +1327,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -1327,130 +1335,224 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Calibri" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Calibri" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -1458,33 +1560,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -1497,13 +1590,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -1513,15 +1600,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -1529,7 +1614,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -1537,44 +1621,45 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" customWidth="1"/>
-    <col min="7" max="7" width="145.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" customWidth="1"/>
-    <col min="10" max="10" width="47.42578125" customWidth="1"/>
-    <col min="11" max="26" width="8.7109375" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="145.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="47.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="11" style="0" width="8.72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1606,7 +1691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1634,11 +1719,11 @@
       <c r="I2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="3" t="n">
         <v>2391875609384720</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1666,11 +1751,11 @@
       <c r="I3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="3" t="n">
         <v>5748392641059380</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1698,11 +1783,11 @@
       <c r="I4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="3" t="n">
         <v>4837519206578490</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -1730,11 +1815,11 @@
       <c r="I5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="3" t="n">
         <v>6275390182475610</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
@@ -1762,11 +1847,11 @@
       <c r="I6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="3" t="n">
         <v>8209735648123040</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
@@ -1794,11 +1879,11 @@
       <c r="I7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="3" t="n">
         <v>6312849057621480</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>63</v>
       </c>
@@ -1826,11 +1911,11 @@
       <c r="I8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="3" t="n">
         <v>7450926184736510</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>72</v>
       </c>
@@ -1858,11 +1943,11 @@
       <c r="I9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="n">
         <v>3918275049831250</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>80</v>
       </c>
@@ -1890,11 +1975,11 @@
       <c r="I10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="n">
         <v>8062513794507280</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>88</v>
       </c>
@@ -1922,11 +2007,11 @@
       <c r="I11" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="3" t="n">
         <v>3928106754930250</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>96</v>
       </c>
@@ -1954,11 +2039,11 @@
       <c r="I12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="n">
         <v>5198642038721060</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>104</v>
       </c>
@@ -1986,11 +2071,11 @@
       <c r="I13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="3" t="n">
         <v>2679514830624710</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>113</v>
       </c>
@@ -2018,11 +2103,11 @@
       <c r="I14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="n">
         <v>5839107623480510</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>122</v>
       </c>
@@ -2050,11 +2135,11 @@
       <c r="I15" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="n">
         <v>4193827360594870</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>130</v>
       </c>
@@ -2082,11 +2167,11 @@
       <c r="I16" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="3" t="n">
         <v>2709465138247090</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>138</v>
       </c>
@@ -2114,11 +2199,11 @@
       <c r="I17" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="3" t="n">
         <v>6182034791526890</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>147</v>
       </c>
@@ -2146,11 +2231,11 @@
       <c r="I18" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="n">
         <v>3849275106583740</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>155</v>
       </c>
@@ -2178,11 +2263,11 @@
       <c r="I19" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="3" t="n">
         <v>9526814072039840</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>163</v>
       </c>
@@ -2210,11 +2295,11 @@
       <c r="I20" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="n">
         <v>4310659284723100</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>171</v>
       </c>
@@ -2242,11 +2327,11 @@
       <c r="I21" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="n">
         <v>8701396524309780</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>180</v>
       </c>
@@ -2274,11 +2359,11 @@
       <c r="I22" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="n">
         <v>7628031546972340</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
         <v>188</v>
       </c>
@@ -2306,11 +2391,11 @@
       <c r="I23" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="3" t="n">
         <v>5397028148362050</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>196</v>
       </c>
@@ -2338,11 +2423,11 @@
       <c r="I24" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="3" t="n">
         <v>2489765137806490</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
         <v>204</v>
       </c>
@@ -2370,11 +2455,11 @@
       <c r="I25" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="3" t="n">
         <v>3908127543019860</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
         <v>213</v>
       </c>
@@ -2402,11 +2487,11 @@
       <c r="I26" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="3" t="n">
         <v>1049768325027590</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>221</v>
       </c>
@@ -2434,11 +2519,11 @@
       <c r="I27" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="3" t="n">
         <v>6581932709846510</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>229</v>
       </c>
@@ -2466,11 +2551,11 @@
       <c r="I28" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="3" t="n">
         <v>9875314207648930</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
         <v>237</v>
       </c>
@@ -2498,11 +2583,11 @@
       <c r="I29" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="n">
         <v>4820156792305140</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
         <v>245</v>
       </c>
@@ -2530,11 +2615,11 @@
       <c r="I30" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="3" t="n">
         <v>6071382948560720</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
         <v>253</v>
       </c>
@@ -2562,11 +2647,11 @@
       <c r="I31" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="3" t="n">
         <v>9150628304783120</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
         <v>259</v>
       </c>
@@ -2594,11 +2679,11 @@
       <c r="I32" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="n">
         <v>7041935621843950</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
         <v>268</v>
       </c>
@@ -2626,11 +2711,11 @@
       <c r="I33" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="3" t="n">
         <v>5186932470192740</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
         <v>276</v>
       </c>
@@ -2658,11 +2743,11 @@
       <c r="I34" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="3" t="n">
         <v>1328957640485920</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
         <v>284</v>
       </c>
@@ -2690,11 +2775,11 @@
       <c r="I35" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="3" t="n">
         <v>2490186753028610</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
         <v>292</v>
       </c>
@@ -2722,11 +2807,11 @@
       <c r="I36" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="3" t="n">
         <v>7836190548274100</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
         <v>299</v>
       </c>
@@ -2754,11 +2839,11 @@
       <c r="I37" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="3" t="n">
         <v>6492187355928370</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
         <v>308</v>
       </c>
@@ -2786,11 +2871,11 @@
       <c r="I38" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="3" t="n">
         <v>2705638901473590</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
         <v>317</v>
       </c>
@@ -2818,11 +2903,11 @@
       <c r="I39" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="3" t="n">
         <v>8029347165294610</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
         <v>324</v>
       </c>
@@ -2850,11 +2935,11 @@
       <c r="I40" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="3" t="n">
         <v>3859015278630490</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
         <v>333</v>
       </c>
@@ -2882,11 +2967,11 @@
       <c r="I41" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="3" t="n">
         <v>7216093845723140</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
         <v>339</v>
       </c>
@@ -2914,11 +2999,11 @@
       <c r="I42" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="n">
         <v>5901867425096310</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
         <v>346</v>
       </c>
@@ -2946,11 +3031,11 @@
       <c r="I43" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="n">
         <v>3647105298017520</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
         <v>353</v>
       </c>
@@ -2978,11 +3063,11 @@
       <c r="I44" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="3" t="n">
         <v>7390184639576020</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
         <v>361</v>
       </c>
@@ -3010,11 +3095,11 @@
       <c r="I45" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="3" t="n">
         <v>4819736202850460</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
         <v>368</v>
       </c>
@@ -3042,11 +3127,11 @@
       <c r="I46" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="3" t="n">
         <v>1582463097586390</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
         <v>375</v>
       </c>
@@ -3074,11 +3159,11 @@
       <c r="I47" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="n">
         <v>6704385912742050</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
         <v>384</v>
       </c>
@@ -3106,11 +3191,11 @@
       <c r="I48" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="n">
         <v>2483659107824790</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
         <v>392</v>
       </c>
@@ -3138,11 +3223,11 @@
       <c r="I49" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="n">
         <v>9130587425640830</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
         <v>400</v>
       </c>
@@ -3170,11 +3255,11 @@
       <c r="I50" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50" s="3" t="n">
         <v>3058746520317940</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
         <v>408</v>
       </c>
@@ -3204,4756 +3289,4761 @@
       </c>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="J56" s="4"/>
     </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="J58" s="4"/>
     </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="J59" s="4"/>
     </row>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="J64" s="4"/>
     </row>
-    <row r="65" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="J65" s="4"/>
     </row>
-    <row r="66" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="J66" s="4"/>
     </row>
-    <row r="67" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="J67" s="4"/>
     </row>
-    <row r="68" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="J68" s="4"/>
     </row>
-    <row r="69" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="J69" s="4"/>
     </row>
-    <row r="70" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="J70" s="4"/>
     </row>
-    <row r="71" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="J72" s="4"/>
     </row>
-    <row r="73" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="J74" s="4"/>
     </row>
-    <row r="75" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="J75" s="4"/>
     </row>
-    <row r="76" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="J80" s="4"/>
     </row>
-    <row r="81" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="J81" s="4"/>
     </row>
-    <row r="82" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="J82" s="4"/>
     </row>
-    <row r="83" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="J83" s="4"/>
     </row>
-    <row r="84" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="J89" s="4"/>
     </row>
-    <row r="90" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="J90" s="4"/>
     </row>
-    <row r="91" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="J98" s="4"/>
     </row>
-    <row r="99" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="J99" s="4"/>
     </row>
-    <row r="100" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="J100" s="4"/>
     </row>
-    <row r="101" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="J104" s="4"/>
     </row>
-    <row r="105" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="J105" s="4"/>
     </row>
-    <row r="106" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="J106" s="4"/>
     </row>
-    <row r="107" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="J113" s="4"/>
     </row>
-    <row r="114" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="J114" s="4"/>
     </row>
-    <row r="115" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="J121" s="4"/>
     </row>
-    <row r="122" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="J122" s="4"/>
     </row>
-    <row r="123" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="J123" s="4"/>
     </row>
-    <row r="124" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="J128" s="4"/>
     </row>
-    <row r="129" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="J129" s="4"/>
     </row>
-    <row r="130" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="J130" s="4"/>
     </row>
-    <row r="131" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="J136" s="4"/>
     </row>
-    <row r="137" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="J137" s="4"/>
     </row>
-    <row r="138" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="J138" s="4"/>
     </row>
-    <row r="139" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="J139" s="4"/>
     </row>
-    <row r="140" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="J144" s="4"/>
     </row>
-    <row r="145" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="J145" s="4"/>
     </row>
-    <row r="146" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="J146" s="4"/>
     </row>
-    <row r="147" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="J147" s="4"/>
     </row>
-    <row r="148" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="J149" s="4"/>
     </row>
-    <row r="150" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="J150" s="4"/>
     </row>
-    <row r="151" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="J152" s="4"/>
     </row>
-    <row r="153" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="J153" s="4"/>
     </row>
-    <row r="154" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="J154" s="4"/>
     </row>
-    <row r="155" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="J155" s="4"/>
     </row>
-    <row r="156" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="J156" s="4"/>
     </row>
-    <row r="157" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="J157" s="4"/>
     </row>
-    <row r="158" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="J158" s="4"/>
     </row>
-    <row r="159" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="J160" s="4"/>
     </row>
-    <row r="161" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="J161" s="4"/>
     </row>
-    <row r="162" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="J162" s="4"/>
     </row>
-    <row r="163" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="J163" s="4"/>
     </row>
-    <row r="164" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="J164" s="4"/>
     </row>
-    <row r="165" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="J165" s="4"/>
     </row>
-    <row r="166" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="J166" s="4"/>
     </row>
-    <row r="167" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="J167" s="4"/>
     </row>
-    <row r="168" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="J168" s="4"/>
     </row>
-    <row r="169" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="J169" s="4"/>
     </row>
-    <row r="170" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="J170" s="4"/>
     </row>
-    <row r="171" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="J171" s="4"/>
     </row>
-    <row r="172" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="J172" s="4"/>
     </row>
-    <row r="173" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
       <c r="J173" s="4"/>
     </row>
-    <row r="174" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="J174" s="4"/>
     </row>
-    <row r="175" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="J176" s="4"/>
     </row>
-    <row r="177" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="J177" s="4"/>
     </row>
-    <row r="178" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="J178" s="4"/>
     </row>
-    <row r="179" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
       <c r="J179" s="4"/>
     </row>
-    <row r="180" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
       <c r="J180" s="4"/>
     </row>
-    <row r="181" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
       <c r="J181" s="4"/>
     </row>
-    <row r="182" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
       <c r="J182" s="4"/>
     </row>
-    <row r="183" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
       <c r="J183" s="4"/>
     </row>
-    <row r="184" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="J184" s="4"/>
     </row>
-    <row r="185" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="J185" s="4"/>
     </row>
-    <row r="186" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
       <c r="J186" s="4"/>
     </row>
-    <row r="187" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
       <c r="J187" s="4"/>
     </row>
-    <row r="188" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
       <c r="J188" s="4"/>
     </row>
-    <row r="189" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
       <c r="J189" s="4"/>
     </row>
-    <row r="190" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
       <c r="J190" s="4"/>
     </row>
-    <row r="191" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
       <c r="J191" s="4"/>
     </row>
-    <row r="192" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
       <c r="J192" s="4"/>
     </row>
-    <row r="193" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
       <c r="J193" s="4"/>
     </row>
-    <row r="194" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
       <c r="J194" s="4"/>
     </row>
-    <row r="195" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
       <c r="J195" s="4"/>
     </row>
-    <row r="196" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
       <c r="J196" s="4"/>
     </row>
-    <row r="197" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
       <c r="J197" s="4"/>
     </row>
-    <row r="198" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
       <c r="J198" s="4"/>
     </row>
-    <row r="199" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
       <c r="J199" s="4"/>
     </row>
-    <row r="200" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
       <c r="J200" s="4"/>
     </row>
-    <row r="201" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
       <c r="J201" s="4"/>
     </row>
-    <row r="202" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
       <c r="J202" s="4"/>
     </row>
-    <row r="203" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
       <c r="J203" s="4"/>
     </row>
-    <row r="204" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
       <c r="J204" s="4"/>
     </row>
-    <row r="205" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
       <c r="J205" s="4"/>
     </row>
-    <row r="206" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
       <c r="J206" s="4"/>
     </row>
-    <row r="207" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
       <c r="J207" s="4"/>
     </row>
-    <row r="208" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
       <c r="J208" s="4"/>
     </row>
-    <row r="209" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
       <c r="J209" s="4"/>
     </row>
-    <row r="210" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
       <c r="J210" s="4"/>
     </row>
-    <row r="211" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
       <c r="J211" s="4"/>
     </row>
-    <row r="212" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
       <c r="J212" s="4"/>
     </row>
-    <row r="213" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
       <c r="J213" s="4"/>
     </row>
-    <row r="214" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
       <c r="J214" s="4"/>
     </row>
-    <row r="215" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
       <c r="J215" s="4"/>
     </row>
-    <row r="216" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
       <c r="J216" s="4"/>
     </row>
-    <row r="217" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
       <c r="J217" s="4"/>
     </row>
-    <row r="218" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
       <c r="J218" s="4"/>
     </row>
-    <row r="219" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
       <c r="J219" s="4"/>
     </row>
-    <row r="220" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
       <c r="J220" s="4"/>
     </row>
-    <row r="221" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
       <c r="J221" s="4"/>
     </row>
-    <row r="222" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
       <c r="J222" s="4"/>
     </row>
-    <row r="223" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
       <c r="J223" s="4"/>
     </row>
-    <row r="224" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
       <c r="J224" s="4"/>
     </row>
-    <row r="225" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
       <c r="J225" s="4"/>
     </row>
-    <row r="226" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
       <c r="J226" s="4"/>
     </row>
-    <row r="227" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
       <c r="J227" s="4"/>
     </row>
-    <row r="228" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
       <c r="J228" s="4"/>
     </row>
-    <row r="229" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
       <c r="J229" s="4"/>
     </row>
-    <row r="230" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
       <c r="J230" s="4"/>
     </row>
-    <row r="231" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
       <c r="J231" s="4"/>
     </row>
-    <row r="232" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
       <c r="J232" s="4"/>
     </row>
-    <row r="233" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
       <c r="J233" s="4"/>
     </row>
-    <row r="234" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
       <c r="J234" s="4"/>
     </row>
-    <row r="235" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
       <c r="J235" s="4"/>
     </row>
-    <row r="236" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
       <c r="J236" s="4"/>
     </row>
-    <row r="237" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
       <c r="J237" s="4"/>
     </row>
-    <row r="238" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
       <c r="J238" s="4"/>
     </row>
-    <row r="239" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
       <c r="J239" s="4"/>
     </row>
-    <row r="240" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
       <c r="J240" s="4"/>
     </row>
-    <row r="241" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
       <c r="J241" s="4"/>
     </row>
-    <row r="242" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
       <c r="J242" s="4"/>
     </row>
-    <row r="243" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
       <c r="J243" s="4"/>
     </row>
-    <row r="244" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
       <c r="J244" s="4"/>
     </row>
-    <row r="245" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
       <c r="J245" s="4"/>
     </row>
-    <row r="246" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
       <c r="J246" s="4"/>
     </row>
-    <row r="247" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
       <c r="J247" s="4"/>
     </row>
-    <row r="248" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
       <c r="J248" s="4"/>
     </row>
-    <row r="249" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
       <c r="J249" s="4"/>
     </row>
-    <row r="250" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
       <c r="J250" s="4"/>
     </row>
-    <row r="251" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
       <c r="J251" s="4"/>
     </row>
-    <row r="252" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
       <c r="J252" s="4"/>
     </row>
-    <row r="253" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
       <c r="J253" s="4"/>
     </row>
-    <row r="254" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
       <c r="J254" s="4"/>
     </row>
-    <row r="255" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
       <c r="J255" s="4"/>
     </row>
-    <row r="256" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
       <c r="J256" s="4"/>
     </row>
-    <row r="257" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
       <c r="J257" s="4"/>
     </row>
-    <row r="258" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
       <c r="J258" s="4"/>
     </row>
-    <row r="259" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
       <c r="J259" s="4"/>
     </row>
-    <row r="260" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
       <c r="J260" s="4"/>
     </row>
-    <row r="261" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
       <c r="J261" s="4"/>
     </row>
-    <row r="262" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
       <c r="J262" s="4"/>
     </row>
-    <row r="263" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
       <c r="J263" s="4"/>
     </row>
-    <row r="264" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
       <c r="J264" s="4"/>
     </row>
-    <row r="265" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
       <c r="J265" s="4"/>
     </row>
-    <row r="266" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
       <c r="J266" s="4"/>
     </row>
-    <row r="267" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
       <c r="J267" s="4"/>
     </row>
-    <row r="268" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
       <c r="J268" s="4"/>
     </row>
-    <row r="269" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
       <c r="J269" s="4"/>
     </row>
-    <row r="270" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
       <c r="J270" s="4"/>
     </row>
-    <row r="271" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
       <c r="J271" s="4"/>
     </row>
-    <row r="272" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
       <c r="J272" s="4"/>
     </row>
-    <row r="273" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
       <c r="J273" s="4"/>
     </row>
-    <row r="274" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
       <c r="J274" s="4"/>
     </row>
-    <row r="275" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
       <c r="J275" s="4"/>
     </row>
-    <row r="276" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
       <c r="J276" s="4"/>
     </row>
-    <row r="277" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
       <c r="J277" s="4"/>
     </row>
-    <row r="278" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
       <c r="J278" s="4"/>
     </row>
-    <row r="279" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
       <c r="J279" s="4"/>
     </row>
-    <row r="280" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
       <c r="J280" s="4"/>
     </row>
-    <row r="281" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
       <c r="J281" s="4"/>
     </row>
-    <row r="282" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
       <c r="J282" s="4"/>
     </row>
-    <row r="283" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
       <c r="J283" s="4"/>
     </row>
-    <row r="284" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
       <c r="J284" s="4"/>
     </row>
-    <row r="285" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
       <c r="J285" s="4"/>
     </row>
-    <row r="286" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
       <c r="J286" s="4"/>
     </row>
-    <row r="287" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
       <c r="J287" s="4"/>
     </row>
-    <row r="288" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
       <c r="J288" s="4"/>
     </row>
-    <row r="289" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
       <c r="J289" s="4"/>
     </row>
-    <row r="290" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
       <c r="J290" s="4"/>
     </row>
-    <row r="291" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
       <c r="J291" s="4"/>
     </row>
-    <row r="292" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
       <c r="J292" s="4"/>
     </row>
-    <row r="293" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
       <c r="J293" s="4"/>
     </row>
-    <row r="294" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
       <c r="J294" s="4"/>
     </row>
-    <row r="295" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
       <c r="J295" s="4"/>
     </row>
-    <row r="296" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
       <c r="J296" s="4"/>
     </row>
-    <row r="297" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
       <c r="J297" s="4"/>
     </row>
-    <row r="298" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
       <c r="J298" s="4"/>
     </row>
-    <row r="299" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
       <c r="J299" s="4"/>
     </row>
-    <row r="300" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
       <c r="J300" s="4"/>
     </row>
-    <row r="301" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
       <c r="J301" s="4"/>
     </row>
-    <row r="302" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
       <c r="J302" s="4"/>
     </row>
-    <row r="303" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
       <c r="J303" s="4"/>
     </row>
-    <row r="304" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
       <c r="J304" s="4"/>
     </row>
-    <row r="305" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
       <c r="J305" s="4"/>
     </row>
-    <row r="306" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
       <c r="J306" s="4"/>
     </row>
-    <row r="307" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
       <c r="J307" s="4"/>
     </row>
-    <row r="308" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
       <c r="J308" s="4"/>
     </row>
-    <row r="309" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
       <c r="J309" s="4"/>
     </row>
-    <row r="310" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
       <c r="J310" s="4"/>
     </row>
-    <row r="311" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
       <c r="J311" s="4"/>
     </row>
-    <row r="312" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
       <c r="J312" s="4"/>
     </row>
-    <row r="313" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
       <c r="J313" s="4"/>
     </row>
-    <row r="314" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
       <c r="J314" s="4"/>
     </row>
-    <row r="315" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
       <c r="J315" s="4"/>
     </row>
-    <row r="316" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
       <c r="J316" s="4"/>
     </row>
-    <row r="317" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
       <c r="J317" s="4"/>
     </row>
-    <row r="318" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
       <c r="J318" s="4"/>
     </row>
-    <row r="319" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
       <c r="J319" s="4"/>
     </row>
-    <row r="320" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
       <c r="J320" s="4"/>
     </row>
-    <row r="321" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
       <c r="J321" s="4"/>
     </row>
-    <row r="322" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
       <c r="J322" s="4"/>
     </row>
-    <row r="323" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
       <c r="J323" s="4"/>
     </row>
-    <row r="324" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
       <c r="J324" s="4"/>
     </row>
-    <row r="325" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
       <c r="J325" s="4"/>
     </row>
-    <row r="326" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
       <c r="J326" s="4"/>
     </row>
-    <row r="327" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
       <c r="J327" s="4"/>
     </row>
-    <row r="328" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
       <c r="J328" s="4"/>
     </row>
-    <row r="329" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
       <c r="J329" s="4"/>
     </row>
-    <row r="330" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
       <c r="J330" s="4"/>
     </row>
-    <row r="331" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
       <c r="J331" s="4"/>
     </row>
-    <row r="332" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
       <c r="J332" s="4"/>
     </row>
-    <row r="333" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
       <c r="J333" s="4"/>
     </row>
-    <row r="334" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
       <c r="J334" s="4"/>
     </row>
-    <row r="335" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
       <c r="J335" s="4"/>
     </row>
-    <row r="336" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
       <c r="J336" s="4"/>
     </row>
-    <row r="337" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
       <c r="J337" s="4"/>
     </row>
-    <row r="338" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
       <c r="J338" s="4"/>
     </row>
-    <row r="339" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
       <c r="J339" s="4"/>
     </row>
-    <row r="340" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
       <c r="J340" s="4"/>
     </row>
-    <row r="341" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
       <c r="J341" s="4"/>
     </row>
-    <row r="342" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
       <c r="J342" s="4"/>
     </row>
-    <row r="343" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
       <c r="J343" s="4"/>
     </row>
-    <row r="344" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
       <c r="J344" s="4"/>
     </row>
-    <row r="345" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
       <c r="J345" s="4"/>
     </row>
-    <row r="346" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
       <c r="J346" s="4"/>
     </row>
-    <row r="347" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
       <c r="J347" s="4"/>
     </row>
-    <row r="348" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
       <c r="J348" s="4"/>
     </row>
-    <row r="349" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
       <c r="J349" s="4"/>
     </row>
-    <row r="350" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
       <c r="J350" s="4"/>
     </row>
-    <row r="351" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
       <c r="J351" s="4"/>
     </row>
-    <row r="352" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
       <c r="J352" s="4"/>
     </row>
-    <row r="353" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
       <c r="J353" s="4"/>
     </row>
-    <row r="354" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
       <c r="J354" s="4"/>
     </row>
-    <row r="355" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
       <c r="J355" s="4"/>
     </row>
-    <row r="356" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
       <c r="J356" s="4"/>
     </row>
-    <row r="357" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
       <c r="J357" s="4"/>
     </row>
-    <row r="358" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
       <c r="J358" s="4"/>
     </row>
-    <row r="359" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
       <c r="J359" s="4"/>
     </row>
-    <row r="360" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
       <c r="J360" s="4"/>
     </row>
-    <row r="361" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
       <c r="J361" s="4"/>
     </row>
-    <row r="362" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
       <c r="J362" s="4"/>
     </row>
-    <row r="363" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
       <c r="J363" s="4"/>
     </row>
-    <row r="364" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
       <c r="J364" s="4"/>
     </row>
-    <row r="365" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
       <c r="J365" s="4"/>
     </row>
-    <row r="366" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
       <c r="J366" s="4"/>
     </row>
-    <row r="367" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
       <c r="J367" s="4"/>
     </row>
-    <row r="368" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
       <c r="J368" s="4"/>
     </row>
-    <row r="369" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
       <c r="J369" s="4"/>
     </row>
-    <row r="370" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
       <c r="J370" s="4"/>
     </row>
-    <row r="371" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
       <c r="J371" s="4"/>
     </row>
-    <row r="372" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
       <c r="J372" s="4"/>
     </row>
-    <row r="373" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
       <c r="J373" s="4"/>
     </row>
-    <row r="374" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
       <c r="J374" s="4"/>
     </row>
-    <row r="375" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
       <c r="J375" s="4"/>
     </row>
-    <row r="376" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
       <c r="J376" s="4"/>
     </row>
-    <row r="377" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
       <c r="J377" s="4"/>
     </row>
-    <row r="378" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
       <c r="J378" s="4"/>
     </row>
-    <row r="379" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
       <c r="J379" s="4"/>
     </row>
-    <row r="380" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
       <c r="J380" s="4"/>
     </row>
-    <row r="381" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
       <c r="J381" s="4"/>
     </row>
-    <row r="382" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
       <c r="J382" s="4"/>
     </row>
-    <row r="383" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
       <c r="J383" s="4"/>
     </row>
-    <row r="384" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
       <c r="J384" s="4"/>
     </row>
-    <row r="385" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
       <c r="J385" s="4"/>
     </row>
-    <row r="386" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
       <c r="J386" s="4"/>
     </row>
-    <row r="387" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
       <c r="J387" s="4"/>
     </row>
-    <row r="388" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
       <c r="J388" s="4"/>
     </row>
-    <row r="389" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
       <c r="J389" s="4"/>
     </row>
-    <row r="390" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
       <c r="J390" s="4"/>
     </row>
-    <row r="391" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
       <c r="J391" s="4"/>
     </row>
-    <row r="392" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
       <c r="J392" s="4"/>
     </row>
-    <row r="393" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
       <c r="J393" s="4"/>
     </row>
-    <row r="394" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
       <c r="J394" s="4"/>
     </row>
-    <row r="395" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
       <c r="J395" s="4"/>
     </row>
-    <row r="396" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
       <c r="J396" s="4"/>
     </row>
-    <row r="397" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
       <c r="J397" s="4"/>
     </row>
-    <row r="398" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
       <c r="J398" s="4"/>
     </row>
-    <row r="399" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
       <c r="J399" s="4"/>
     </row>
-    <row r="400" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
       <c r="J400" s="4"/>
     </row>
-    <row r="401" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
       <c r="J401" s="4"/>
     </row>
-    <row r="402" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
       <c r="J402" s="4"/>
     </row>
-    <row r="403" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
       <c r="J403" s="4"/>
     </row>
-    <row r="404" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
       <c r="J404" s="4"/>
     </row>
-    <row r="405" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
       <c r="J405" s="4"/>
     </row>
-    <row r="406" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
       <c r="J406" s="4"/>
     </row>
-    <row r="407" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
       <c r="J407" s="4"/>
     </row>
-    <row r="408" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
       <c r="J408" s="4"/>
     </row>
-    <row r="409" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
       <c r="J409" s="4"/>
     </row>
-    <row r="410" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
       <c r="J410" s="4"/>
     </row>
-    <row r="411" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
       <c r="J411" s="4"/>
     </row>
-    <row r="412" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
       <c r="J412" s="4"/>
     </row>
-    <row r="413" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
       <c r="J413" s="4"/>
     </row>
-    <row r="414" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
       <c r="J414" s="4"/>
     </row>
-    <row r="415" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
       <c r="J415" s="4"/>
     </row>
-    <row r="416" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
       <c r="J416" s="4"/>
     </row>
-    <row r="417" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
       <c r="J417" s="4"/>
     </row>
-    <row r="418" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
       <c r="J418" s="4"/>
     </row>
-    <row r="419" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
       <c r="J419" s="4"/>
     </row>
-    <row r="420" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
       <c r="J420" s="4"/>
     </row>
-    <row r="421" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
       <c r="J421" s="4"/>
     </row>
-    <row r="422" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
       <c r="J422" s="4"/>
     </row>
-    <row r="423" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
       <c r="J423" s="4"/>
     </row>
-    <row r="424" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
       <c r="J424" s="4"/>
     </row>
-    <row r="425" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
       <c r="J425" s="4"/>
     </row>
-    <row r="426" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
       <c r="J426" s="4"/>
     </row>
-    <row r="427" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
       <c r="J427" s="4"/>
     </row>
-    <row r="428" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
       <c r="J428" s="4"/>
     </row>
-    <row r="429" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
       <c r="J429" s="4"/>
     </row>
-    <row r="430" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
       <c r="J430" s="4"/>
     </row>
-    <row r="431" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
       <c r="J431" s="4"/>
     </row>
-    <row r="432" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
       <c r="J432" s="4"/>
     </row>
-    <row r="433" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
       <c r="J433" s="4"/>
     </row>
-    <row r="434" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
       <c r="J434" s="4"/>
     </row>
-    <row r="435" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
       <c r="J435" s="4"/>
     </row>
-    <row r="436" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
       <c r="J436" s="4"/>
     </row>
-    <row r="437" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
       <c r="J437" s="4"/>
     </row>
-    <row r="438" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
       <c r="J438" s="4"/>
     </row>
-    <row r="439" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
       <c r="J439" s="4"/>
     </row>
-    <row r="440" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
       <c r="J440" s="4"/>
     </row>
-    <row r="441" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
       <c r="J441" s="4"/>
     </row>
-    <row r="442" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
       <c r="J442" s="4"/>
     </row>
-    <row r="443" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
       <c r="J443" s="4"/>
     </row>
-    <row r="444" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
       <c r="J444" s="4"/>
     </row>
-    <row r="445" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
       <c r="J445" s="4"/>
     </row>
-    <row r="446" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
       <c r="J446" s="4"/>
     </row>
-    <row r="447" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
       <c r="J447" s="4"/>
     </row>
-    <row r="448" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
       <c r="J448" s="4"/>
     </row>
-    <row r="449" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
       <c r="J449" s="4"/>
     </row>
-    <row r="450" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
       <c r="J450" s="4"/>
     </row>
-    <row r="451" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
       <c r="J451" s="4"/>
     </row>
-    <row r="452" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
       <c r="J452" s="4"/>
     </row>
-    <row r="453" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
       <c r="J453" s="4"/>
     </row>
-    <row r="454" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
       <c r="J454" s="4"/>
     </row>
-    <row r="455" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
       <c r="J455" s="4"/>
     </row>
-    <row r="456" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
       <c r="J456" s="4"/>
     </row>
-    <row r="457" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
       <c r="J457" s="4"/>
     </row>
-    <row r="458" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
       <c r="J458" s="4"/>
     </row>
-    <row r="459" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
       <c r="J459" s="4"/>
     </row>
-    <row r="460" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
       <c r="J460" s="4"/>
     </row>
-    <row r="461" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
       <c r="J461" s="4"/>
     </row>
-    <row r="462" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
       <c r="J462" s="4"/>
     </row>
-    <row r="463" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
       <c r="J463" s="4"/>
     </row>
-    <row r="464" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
       <c r="J464" s="4"/>
     </row>
-    <row r="465" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D465" s="4"/>
       <c r="E465" s="4"/>
       <c r="J465" s="4"/>
     </row>
-    <row r="466" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D466" s="4"/>
       <c r="E466" s="4"/>
       <c r="J466" s="4"/>
     </row>
-    <row r="467" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
       <c r="J467" s="4"/>
     </row>
-    <row r="468" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
       <c r="J468" s="4"/>
     </row>
-    <row r="469" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D469" s="4"/>
       <c r="E469" s="4"/>
       <c r="J469" s="4"/>
     </row>
-    <row r="470" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
       <c r="J470" s="4"/>
     </row>
-    <row r="471" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
       <c r="J471" s="4"/>
     </row>
-    <row r="472" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D472" s="4"/>
       <c r="E472" s="4"/>
       <c r="J472" s="4"/>
     </row>
-    <row r="473" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
       <c r="J473" s="4"/>
     </row>
-    <row r="474" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D474" s="4"/>
       <c r="E474" s="4"/>
       <c r="J474" s="4"/>
     </row>
-    <row r="475" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
       <c r="J475" s="4"/>
     </row>
-    <row r="476" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
       <c r="J476" s="4"/>
     </row>
-    <row r="477" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
       <c r="J477" s="4"/>
     </row>
-    <row r="478" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D478" s="4"/>
       <c r="E478" s="4"/>
       <c r="J478" s="4"/>
     </row>
-    <row r="479" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
       <c r="J479" s="4"/>
     </row>
-    <row r="480" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D480" s="4"/>
       <c r="E480" s="4"/>
       <c r="J480" s="4"/>
     </row>
-    <row r="481" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D481" s="4"/>
       <c r="E481" s="4"/>
       <c r="J481" s="4"/>
     </row>
-    <row r="482" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D482" s="4"/>
       <c r="E482" s="4"/>
       <c r="J482" s="4"/>
     </row>
-    <row r="483" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D483" s="4"/>
       <c r="E483" s="4"/>
       <c r="J483" s="4"/>
     </row>
-    <row r="484" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D484" s="4"/>
       <c r="E484" s="4"/>
       <c r="J484" s="4"/>
     </row>
-    <row r="485" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D485" s="4"/>
       <c r="E485" s="4"/>
       <c r="J485" s="4"/>
     </row>
-    <row r="486" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D486" s="4"/>
       <c r="E486" s="4"/>
       <c r="J486" s="4"/>
     </row>
-    <row r="487" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D487" s="4"/>
       <c r="E487" s="4"/>
       <c r="J487" s="4"/>
     </row>
-    <row r="488" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D488" s="4"/>
       <c r="E488" s="4"/>
       <c r="J488" s="4"/>
     </row>
-    <row r="489" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D489" s="4"/>
       <c r="E489" s="4"/>
       <c r="J489" s="4"/>
     </row>
-    <row r="490" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D490" s="4"/>
       <c r="E490" s="4"/>
       <c r="J490" s="4"/>
     </row>
-    <row r="491" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D491" s="4"/>
       <c r="E491" s="4"/>
       <c r="J491" s="4"/>
     </row>
-    <row r="492" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D492" s="4"/>
       <c r="E492" s="4"/>
       <c r="J492" s="4"/>
     </row>
-    <row r="493" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D493" s="4"/>
       <c r="E493" s="4"/>
       <c r="J493" s="4"/>
     </row>
-    <row r="494" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D494" s="4"/>
       <c r="E494" s="4"/>
       <c r="J494" s="4"/>
     </row>
-    <row r="495" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D495" s="4"/>
       <c r="E495" s="4"/>
       <c r="J495" s="4"/>
     </row>
-    <row r="496" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D496" s="4"/>
       <c r="E496" s="4"/>
       <c r="J496" s="4"/>
     </row>
-    <row r="497" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D497" s="4"/>
       <c r="E497" s="4"/>
       <c r="J497" s="4"/>
     </row>
-    <row r="498" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D498" s="4"/>
       <c r="E498" s="4"/>
       <c r="J498" s="4"/>
     </row>
-    <row r="499" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D499" s="4"/>
       <c r="E499" s="4"/>
       <c r="J499" s="4"/>
     </row>
-    <row r="500" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D500" s="4"/>
       <c r="E500" s="4"/>
       <c r="J500" s="4"/>
     </row>
-    <row r="501" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D501" s="4"/>
       <c r="E501" s="4"/>
       <c r="J501" s="4"/>
     </row>
-    <row r="502" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D502" s="4"/>
       <c r="E502" s="4"/>
       <c r="J502" s="4"/>
     </row>
-    <row r="503" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D503" s="4"/>
       <c r="E503" s="4"/>
       <c r="J503" s="4"/>
     </row>
-    <row r="504" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D504" s="4"/>
       <c r="E504" s="4"/>
       <c r="J504" s="4"/>
     </row>
-    <row r="505" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D505" s="4"/>
       <c r="E505" s="4"/>
       <c r="J505" s="4"/>
     </row>
-    <row r="506" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D506" s="4"/>
       <c r="E506" s="4"/>
       <c r="J506" s="4"/>
     </row>
-    <row r="507" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D507" s="4"/>
       <c r="E507" s="4"/>
       <c r="J507" s="4"/>
     </row>
-    <row r="508" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D508" s="4"/>
       <c r="E508" s="4"/>
       <c r="J508" s="4"/>
     </row>
-    <row r="509" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D509" s="4"/>
       <c r="E509" s="4"/>
       <c r="J509" s="4"/>
     </row>
-    <row r="510" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D510" s="4"/>
       <c r="E510" s="4"/>
       <c r="J510" s="4"/>
     </row>
-    <row r="511" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D511" s="4"/>
       <c r="E511" s="4"/>
       <c r="J511" s="4"/>
     </row>
-    <row r="512" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D512" s="4"/>
       <c r="E512" s="4"/>
       <c r="J512" s="4"/>
     </row>
-    <row r="513" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D513" s="4"/>
       <c r="E513" s="4"/>
       <c r="J513" s="4"/>
     </row>
-    <row r="514" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D514" s="4"/>
       <c r="E514" s="4"/>
       <c r="J514" s="4"/>
     </row>
-    <row r="515" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D515" s="4"/>
       <c r="E515" s="4"/>
       <c r="J515" s="4"/>
     </row>
-    <row r="516" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D516" s="4"/>
       <c r="E516" s="4"/>
       <c r="J516" s="4"/>
     </row>
-    <row r="517" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D517" s="4"/>
       <c r="E517" s="4"/>
       <c r="J517" s="4"/>
     </row>
-    <row r="518" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D518" s="4"/>
       <c r="E518" s="4"/>
       <c r="J518" s="4"/>
     </row>
-    <row r="519" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D519" s="4"/>
       <c r="E519" s="4"/>
       <c r="J519" s="4"/>
     </row>
-    <row r="520" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D520" s="4"/>
       <c r="E520" s="4"/>
       <c r="J520" s="4"/>
     </row>
-    <row r="521" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D521" s="4"/>
       <c r="E521" s="4"/>
       <c r="J521" s="4"/>
     </row>
-    <row r="522" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D522" s="4"/>
       <c r="E522" s="4"/>
       <c r="J522" s="4"/>
     </row>
-    <row r="523" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D523" s="4"/>
       <c r="E523" s="4"/>
       <c r="J523" s="4"/>
     </row>
-    <row r="524" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D524" s="4"/>
       <c r="E524" s="4"/>
       <c r="J524" s="4"/>
     </row>
-    <row r="525" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D525" s="4"/>
       <c r="E525" s="4"/>
       <c r="J525" s="4"/>
     </row>
-    <row r="526" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D526" s="4"/>
       <c r="E526" s="4"/>
       <c r="J526" s="4"/>
     </row>
-    <row r="527" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D527" s="4"/>
       <c r="E527" s="4"/>
       <c r="J527" s="4"/>
     </row>
-    <row r="528" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D528" s="4"/>
       <c r="E528" s="4"/>
       <c r="J528" s="4"/>
     </row>
-    <row r="529" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D529" s="4"/>
       <c r="E529" s="4"/>
       <c r="J529" s="4"/>
     </row>
-    <row r="530" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D530" s="4"/>
       <c r="E530" s="4"/>
       <c r="J530" s="4"/>
     </row>
-    <row r="531" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D531" s="4"/>
       <c r="E531" s="4"/>
       <c r="J531" s="4"/>
     </row>
-    <row r="532" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D532" s="4"/>
       <c r="E532" s="4"/>
       <c r="J532" s="4"/>
     </row>
-    <row r="533" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D533" s="4"/>
       <c r="E533" s="4"/>
       <c r="J533" s="4"/>
     </row>
-    <row r="534" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D534" s="4"/>
       <c r="E534" s="4"/>
       <c r="J534" s="4"/>
     </row>
-    <row r="535" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D535" s="4"/>
       <c r="E535" s="4"/>
       <c r="J535" s="4"/>
     </row>
-    <row r="536" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D536" s="4"/>
       <c r="E536" s="4"/>
       <c r="J536" s="4"/>
     </row>
-    <row r="537" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D537" s="4"/>
       <c r="E537" s="4"/>
       <c r="J537" s="4"/>
     </row>
-    <row r="538" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D538" s="4"/>
       <c r="E538" s="4"/>
       <c r="J538" s="4"/>
     </row>
-    <row r="539" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D539" s="4"/>
       <c r="E539" s="4"/>
       <c r="J539" s="4"/>
     </row>
-    <row r="540" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D540" s="4"/>
       <c r="E540" s="4"/>
       <c r="J540" s="4"/>
     </row>
-    <row r="541" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D541" s="4"/>
       <c r="E541" s="4"/>
       <c r="J541" s="4"/>
     </row>
-    <row r="542" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D542" s="4"/>
       <c r="E542" s="4"/>
       <c r="J542" s="4"/>
     </row>
-    <row r="543" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D543" s="4"/>
       <c r="E543" s="4"/>
       <c r="J543" s="4"/>
     </row>
-    <row r="544" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D544" s="4"/>
       <c r="E544" s="4"/>
       <c r="J544" s="4"/>
     </row>
-    <row r="545" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D545" s="4"/>
       <c r="E545" s="4"/>
       <c r="J545" s="4"/>
     </row>
-    <row r="546" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D546" s="4"/>
       <c r="E546" s="4"/>
       <c r="J546" s="4"/>
     </row>
-    <row r="547" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D547" s="4"/>
       <c r="E547" s="4"/>
       <c r="J547" s="4"/>
     </row>
-    <row r="548" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D548" s="4"/>
       <c r="E548" s="4"/>
       <c r="J548" s="4"/>
     </row>
-    <row r="549" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D549" s="4"/>
       <c r="E549" s="4"/>
       <c r="J549" s="4"/>
     </row>
-    <row r="550" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D550" s="4"/>
       <c r="E550" s="4"/>
       <c r="J550" s="4"/>
     </row>
-    <row r="551" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D551" s="4"/>
       <c r="E551" s="4"/>
       <c r="J551" s="4"/>
     </row>
-    <row r="552" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D552" s="4"/>
       <c r="E552" s="4"/>
       <c r="J552" s="4"/>
     </row>
-    <row r="553" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D553" s="4"/>
       <c r="E553" s="4"/>
       <c r="J553" s="4"/>
     </row>
-    <row r="554" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D554" s="4"/>
       <c r="E554" s="4"/>
       <c r="J554" s="4"/>
     </row>
-    <row r="555" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D555" s="4"/>
       <c r="E555" s="4"/>
       <c r="J555" s="4"/>
     </row>
-    <row r="556" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D556" s="4"/>
       <c r="E556" s="4"/>
       <c r="J556" s="4"/>
     </row>
-    <row r="557" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D557" s="4"/>
       <c r="E557" s="4"/>
       <c r="J557" s="4"/>
     </row>
-    <row r="558" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D558" s="4"/>
       <c r="E558" s="4"/>
       <c r="J558" s="4"/>
     </row>
-    <row r="559" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D559" s="4"/>
       <c r="E559" s="4"/>
       <c r="J559" s="4"/>
     </row>
-    <row r="560" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D560" s="4"/>
       <c r="E560" s="4"/>
       <c r="J560" s="4"/>
     </row>
-    <row r="561" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D561" s="4"/>
       <c r="E561" s="4"/>
       <c r="J561" s="4"/>
     </row>
-    <row r="562" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D562" s="4"/>
       <c r="E562" s="4"/>
       <c r="J562" s="4"/>
     </row>
-    <row r="563" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D563" s="4"/>
       <c r="E563" s="4"/>
       <c r="J563" s="4"/>
     </row>
-    <row r="564" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D564" s="4"/>
       <c r="E564" s="4"/>
       <c r="J564" s="4"/>
     </row>
-    <row r="565" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D565" s="4"/>
       <c r="E565" s="4"/>
       <c r="J565" s="4"/>
     </row>
-    <row r="566" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D566" s="4"/>
       <c r="E566" s="4"/>
       <c r="J566" s="4"/>
     </row>
-    <row r="567" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D567" s="4"/>
       <c r="E567" s="4"/>
       <c r="J567" s="4"/>
     </row>
-    <row r="568" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D568" s="4"/>
       <c r="E568" s="4"/>
       <c r="J568" s="4"/>
     </row>
-    <row r="569" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D569" s="4"/>
       <c r="E569" s="4"/>
       <c r="J569" s="4"/>
     </row>
-    <row r="570" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D570" s="4"/>
       <c r="E570" s="4"/>
       <c r="J570" s="4"/>
     </row>
-    <row r="571" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D571" s="4"/>
       <c r="E571" s="4"/>
       <c r="J571" s="4"/>
     </row>
-    <row r="572" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D572" s="4"/>
       <c r="E572" s="4"/>
       <c r="J572" s="4"/>
     </row>
-    <row r="573" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D573" s="4"/>
       <c r="E573" s="4"/>
       <c r="J573" s="4"/>
     </row>
-    <row r="574" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D574" s="4"/>
       <c r="E574" s="4"/>
       <c r="J574" s="4"/>
     </row>
-    <row r="575" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D575" s="4"/>
       <c r="E575" s="4"/>
       <c r="J575" s="4"/>
     </row>
-    <row r="576" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D576" s="4"/>
       <c r="E576" s="4"/>
       <c r="J576" s="4"/>
     </row>
-    <row r="577" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D577" s="4"/>
       <c r="E577" s="4"/>
       <c r="J577" s="4"/>
     </row>
-    <row r="578" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D578" s="4"/>
       <c r="E578" s="4"/>
       <c r="J578" s="4"/>
     </row>
-    <row r="579" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D579" s="4"/>
       <c r="E579" s="4"/>
       <c r="J579" s="4"/>
     </row>
-    <row r="580" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D580" s="4"/>
       <c r="E580" s="4"/>
       <c r="J580" s="4"/>
     </row>
-    <row r="581" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D581" s="4"/>
       <c r="E581" s="4"/>
       <c r="J581" s="4"/>
     </row>
-    <row r="582" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D582" s="4"/>
       <c r="E582" s="4"/>
       <c r="J582" s="4"/>
     </row>
-    <row r="583" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D583" s="4"/>
       <c r="E583" s="4"/>
       <c r="J583" s="4"/>
     </row>
-    <row r="584" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D584" s="4"/>
       <c r="E584" s="4"/>
       <c r="J584" s="4"/>
     </row>
-    <row r="585" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D585" s="4"/>
       <c r="E585" s="4"/>
       <c r="J585" s="4"/>
     </row>
-    <row r="586" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D586" s="4"/>
       <c r="E586" s="4"/>
       <c r="J586" s="4"/>
     </row>
-    <row r="587" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D587" s="4"/>
       <c r="E587" s="4"/>
       <c r="J587" s="4"/>
     </row>
-    <row r="588" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D588" s="4"/>
       <c r="E588" s="4"/>
       <c r="J588" s="4"/>
     </row>
-    <row r="589" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D589" s="4"/>
       <c r="E589" s="4"/>
       <c r="J589" s="4"/>
     </row>
-    <row r="590" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D590" s="4"/>
       <c r="E590" s="4"/>
       <c r="J590" s="4"/>
     </row>
-    <row r="591" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D591" s="4"/>
       <c r="E591" s="4"/>
       <c r="J591" s="4"/>
     </row>
-    <row r="592" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D592" s="4"/>
       <c r="E592" s="4"/>
       <c r="J592" s="4"/>
     </row>
-    <row r="593" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D593" s="4"/>
       <c r="E593" s="4"/>
       <c r="J593" s="4"/>
     </row>
-    <row r="594" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D594" s="4"/>
       <c r="E594" s="4"/>
       <c r="J594" s="4"/>
     </row>
-    <row r="595" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D595" s="4"/>
       <c r="E595" s="4"/>
       <c r="J595" s="4"/>
     </row>
-    <row r="596" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D596" s="4"/>
       <c r="E596" s="4"/>
       <c r="J596" s="4"/>
     </row>
-    <row r="597" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D597" s="4"/>
       <c r="E597" s="4"/>
       <c r="J597" s="4"/>
     </row>
-    <row r="598" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D598" s="4"/>
       <c r="E598" s="4"/>
       <c r="J598" s="4"/>
     </row>
-    <row r="599" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D599" s="4"/>
       <c r="E599" s="4"/>
       <c r="J599" s="4"/>
     </row>
-    <row r="600" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D600" s="4"/>
       <c r="E600" s="4"/>
       <c r="J600" s="4"/>
     </row>
-    <row r="601" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D601" s="4"/>
       <c r="E601" s="4"/>
       <c r="J601" s="4"/>
     </row>
-    <row r="602" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D602" s="4"/>
       <c r="E602" s="4"/>
       <c r="J602" s="4"/>
     </row>
-    <row r="603" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D603" s="4"/>
       <c r="E603" s="4"/>
       <c r="J603" s="4"/>
     </row>
-    <row r="604" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D604" s="4"/>
       <c r="E604" s="4"/>
       <c r="J604" s="4"/>
     </row>
-    <row r="605" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D605" s="4"/>
       <c r="E605" s="4"/>
       <c r="J605" s="4"/>
     </row>
-    <row r="606" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D606" s="4"/>
       <c r="E606" s="4"/>
       <c r="J606" s="4"/>
     </row>
-    <row r="607" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D607" s="4"/>
       <c r="E607" s="4"/>
       <c r="J607" s="4"/>
     </row>
-    <row r="608" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D608" s="4"/>
       <c r="E608" s="4"/>
       <c r="J608" s="4"/>
     </row>
-    <row r="609" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D609" s="4"/>
       <c r="E609" s="4"/>
       <c r="J609" s="4"/>
     </row>
-    <row r="610" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D610" s="4"/>
       <c r="E610" s="4"/>
       <c r="J610" s="4"/>
     </row>
-    <row r="611" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D611" s="4"/>
       <c r="E611" s="4"/>
       <c r="J611" s="4"/>
     </row>
-    <row r="612" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D612" s="4"/>
       <c r="E612" s="4"/>
       <c r="J612" s="4"/>
     </row>
-    <row r="613" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D613" s="4"/>
       <c r="E613" s="4"/>
       <c r="J613" s="4"/>
     </row>
-    <row r="614" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D614" s="4"/>
       <c r="E614" s="4"/>
       <c r="J614" s="4"/>
     </row>
-    <row r="615" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D615" s="4"/>
       <c r="E615" s="4"/>
       <c r="J615" s="4"/>
     </row>
-    <row r="616" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D616" s="4"/>
       <c r="E616" s="4"/>
       <c r="J616" s="4"/>
     </row>
-    <row r="617" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D617" s="4"/>
       <c r="E617" s="4"/>
       <c r="J617" s="4"/>
     </row>
-    <row r="618" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D618" s="4"/>
       <c r="E618" s="4"/>
       <c r="J618" s="4"/>
     </row>
-    <row r="619" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D619" s="4"/>
       <c r="E619" s="4"/>
       <c r="J619" s="4"/>
     </row>
-    <row r="620" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D620" s="4"/>
       <c r="E620" s="4"/>
       <c r="J620" s="4"/>
     </row>
-    <row r="621" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D621" s="4"/>
       <c r="E621" s="4"/>
       <c r="J621" s="4"/>
     </row>
-    <row r="622" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D622" s="4"/>
       <c r="E622" s="4"/>
       <c r="J622" s="4"/>
     </row>
-    <row r="623" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D623" s="4"/>
       <c r="E623" s="4"/>
       <c r="J623" s="4"/>
     </row>
-    <row r="624" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D624" s="4"/>
       <c r="E624" s="4"/>
       <c r="J624" s="4"/>
     </row>
-    <row r="625" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D625" s="4"/>
       <c r="E625" s="4"/>
       <c r="J625" s="4"/>
     </row>
-    <row r="626" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D626" s="4"/>
       <c r="E626" s="4"/>
       <c r="J626" s="4"/>
     </row>
-    <row r="627" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D627" s="4"/>
       <c r="E627" s="4"/>
       <c r="J627" s="4"/>
     </row>
-    <row r="628" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D628" s="4"/>
       <c r="E628" s="4"/>
       <c r="J628" s="4"/>
     </row>
-    <row r="629" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D629" s="4"/>
       <c r="E629" s="4"/>
       <c r="J629" s="4"/>
     </row>
-    <row r="630" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D630" s="4"/>
       <c r="E630" s="4"/>
       <c r="J630" s="4"/>
     </row>
-    <row r="631" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D631" s="4"/>
       <c r="E631" s="4"/>
       <c r="J631" s="4"/>
     </row>
-    <row r="632" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D632" s="4"/>
       <c r="E632" s="4"/>
       <c r="J632" s="4"/>
     </row>
-    <row r="633" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D633" s="4"/>
       <c r="E633" s="4"/>
       <c r="J633" s="4"/>
     </row>
-    <row r="634" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D634" s="4"/>
       <c r="E634" s="4"/>
       <c r="J634" s="4"/>
     </row>
-    <row r="635" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D635" s="4"/>
       <c r="E635" s="4"/>
       <c r="J635" s="4"/>
     </row>
-    <row r="636" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D636" s="4"/>
       <c r="E636" s="4"/>
       <c r="J636" s="4"/>
     </row>
-    <row r="637" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D637" s="4"/>
       <c r="E637" s="4"/>
       <c r="J637" s="4"/>
     </row>
-    <row r="638" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D638" s="4"/>
       <c r="E638" s="4"/>
       <c r="J638" s="4"/>
     </row>
-    <row r="639" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D639" s="4"/>
       <c r="E639" s="4"/>
       <c r="J639" s="4"/>
     </row>
-    <row r="640" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D640" s="4"/>
       <c r="E640" s="4"/>
       <c r="J640" s="4"/>
     </row>
-    <row r="641" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D641" s="4"/>
       <c r="E641" s="4"/>
       <c r="J641" s="4"/>
     </row>
-    <row r="642" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D642" s="4"/>
       <c r="E642" s="4"/>
       <c r="J642" s="4"/>
     </row>
-    <row r="643" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D643" s="4"/>
       <c r="E643" s="4"/>
       <c r="J643" s="4"/>
     </row>
-    <row r="644" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D644" s="4"/>
       <c r="E644" s="4"/>
       <c r="J644" s="4"/>
     </row>
-    <row r="645" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D645" s="4"/>
       <c r="E645" s="4"/>
       <c r="J645" s="4"/>
     </row>
-    <row r="646" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D646" s="4"/>
       <c r="E646" s="4"/>
       <c r="J646" s="4"/>
     </row>
-    <row r="647" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D647" s="4"/>
       <c r="E647" s="4"/>
       <c r="J647" s="4"/>
     </row>
-    <row r="648" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D648" s="4"/>
       <c r="E648" s="4"/>
       <c r="J648" s="4"/>
     </row>
-    <row r="649" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D649" s="4"/>
       <c r="E649" s="4"/>
       <c r="J649" s="4"/>
     </row>
-    <row r="650" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D650" s="4"/>
       <c r="E650" s="4"/>
       <c r="J650" s="4"/>
     </row>
-    <row r="651" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D651" s="4"/>
       <c r="E651" s="4"/>
       <c r="J651" s="4"/>
     </row>
-    <row r="652" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D652" s="4"/>
       <c r="E652" s="4"/>
       <c r="J652" s="4"/>
     </row>
-    <row r="653" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D653" s="4"/>
       <c r="E653" s="4"/>
       <c r="J653" s="4"/>
     </row>
-    <row r="654" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D654" s="4"/>
       <c r="E654" s="4"/>
       <c r="J654" s="4"/>
     </row>
-    <row r="655" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D655" s="4"/>
       <c r="E655" s="4"/>
       <c r="J655" s="4"/>
     </row>
-    <row r="656" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D656" s="4"/>
       <c r="E656" s="4"/>
       <c r="J656" s="4"/>
     </row>
-    <row r="657" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D657" s="4"/>
       <c r="E657" s="4"/>
       <c r="J657" s="4"/>
     </row>
-    <row r="658" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D658" s="4"/>
       <c r="E658" s="4"/>
       <c r="J658" s="4"/>
     </row>
-    <row r="659" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D659" s="4"/>
       <c r="E659" s="4"/>
       <c r="J659" s="4"/>
     </row>
-    <row r="660" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D660" s="4"/>
       <c r="E660" s="4"/>
       <c r="J660" s="4"/>
     </row>
-    <row r="661" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D661" s="4"/>
       <c r="E661" s="4"/>
       <c r="J661" s="4"/>
     </row>
-    <row r="662" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D662" s="4"/>
       <c r="E662" s="4"/>
       <c r="J662" s="4"/>
     </row>
-    <row r="663" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D663" s="4"/>
       <c r="E663" s="4"/>
       <c r="J663" s="4"/>
     </row>
-    <row r="664" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D664" s="4"/>
       <c r="E664" s="4"/>
       <c r="J664" s="4"/>
     </row>
-    <row r="665" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D665" s="4"/>
       <c r="E665" s="4"/>
       <c r="J665" s="4"/>
     </row>
-    <row r="666" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D666" s="4"/>
       <c r="E666" s="4"/>
       <c r="J666" s="4"/>
     </row>
-    <row r="667" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D667" s="4"/>
       <c r="E667" s="4"/>
       <c r="J667" s="4"/>
     </row>
-    <row r="668" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D668" s="4"/>
       <c r="E668" s="4"/>
       <c r="J668" s="4"/>
     </row>
-    <row r="669" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D669" s="4"/>
       <c r="E669" s="4"/>
       <c r="J669" s="4"/>
     </row>
-    <row r="670" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D670" s="4"/>
       <c r="E670" s="4"/>
       <c r="J670" s="4"/>
     </row>
-    <row r="671" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D671" s="4"/>
       <c r="E671" s="4"/>
       <c r="J671" s="4"/>
     </row>
-    <row r="672" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D672" s="4"/>
       <c r="E672" s="4"/>
       <c r="J672" s="4"/>
     </row>
-    <row r="673" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D673" s="4"/>
       <c r="E673" s="4"/>
       <c r="J673" s="4"/>
     </row>
-    <row r="674" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D674" s="4"/>
       <c r="E674" s="4"/>
       <c r="J674" s="4"/>
     </row>
-    <row r="675" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D675" s="4"/>
       <c r="E675" s="4"/>
       <c r="J675" s="4"/>
     </row>
-    <row r="676" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D676" s="4"/>
       <c r="E676" s="4"/>
       <c r="J676" s="4"/>
     </row>
-    <row r="677" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D677" s="4"/>
       <c r="E677" s="4"/>
       <c r="J677" s="4"/>
     </row>
-    <row r="678" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D678" s="4"/>
       <c r="E678" s="4"/>
       <c r="J678" s="4"/>
     </row>
-    <row r="679" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D679" s="4"/>
       <c r="E679" s="4"/>
       <c r="J679" s="4"/>
     </row>
-    <row r="680" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D680" s="4"/>
       <c r="E680" s="4"/>
       <c r="J680" s="4"/>
     </row>
-    <row r="681" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D681" s="4"/>
       <c r="E681" s="4"/>
       <c r="J681" s="4"/>
     </row>
-    <row r="682" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D682" s="4"/>
       <c r="E682" s="4"/>
       <c r="J682" s="4"/>
     </row>
-    <row r="683" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D683" s="4"/>
       <c r="E683" s="4"/>
       <c r="J683" s="4"/>
     </row>
-    <row r="684" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D684" s="4"/>
       <c r="E684" s="4"/>
       <c r="J684" s="4"/>
     </row>
-    <row r="685" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D685" s="4"/>
       <c r="E685" s="4"/>
       <c r="J685" s="4"/>
     </row>
-    <row r="686" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D686" s="4"/>
       <c r="E686" s="4"/>
       <c r="J686" s="4"/>
     </row>
-    <row r="687" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D687" s="4"/>
       <c r="E687" s="4"/>
       <c r="J687" s="4"/>
     </row>
-    <row r="688" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D688" s="4"/>
       <c r="E688" s="4"/>
       <c r="J688" s="4"/>
     </row>
-    <row r="689" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D689" s="4"/>
       <c r="E689" s="4"/>
       <c r="J689" s="4"/>
     </row>
-    <row r="690" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D690" s="4"/>
       <c r="E690" s="4"/>
       <c r="J690" s="4"/>
     </row>
-    <row r="691" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D691" s="4"/>
       <c r="E691" s="4"/>
       <c r="J691" s="4"/>
     </row>
-    <row r="692" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D692" s="4"/>
       <c r="E692" s="4"/>
       <c r="J692" s="4"/>
     </row>
-    <row r="693" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D693" s="4"/>
       <c r="E693" s="4"/>
       <c r="J693" s="4"/>
     </row>
-    <row r="694" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D694" s="4"/>
       <c r="E694" s="4"/>
       <c r="J694" s="4"/>
     </row>
-    <row r="695" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D695" s="4"/>
       <c r="E695" s="4"/>
       <c r="J695" s="4"/>
     </row>
-    <row r="696" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D696" s="4"/>
       <c r="E696" s="4"/>
       <c r="J696" s="4"/>
     </row>
-    <row r="697" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D697" s="4"/>
       <c r="E697" s="4"/>
       <c r="J697" s="4"/>
     </row>
-    <row r="698" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D698" s="4"/>
       <c r="E698" s="4"/>
       <c r="J698" s="4"/>
     </row>
-    <row r="699" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D699" s="4"/>
       <c r="E699" s="4"/>
       <c r="J699" s="4"/>
     </row>
-    <row r="700" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D700" s="4"/>
       <c r="E700" s="4"/>
       <c r="J700" s="4"/>
     </row>
-    <row r="701" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D701" s="4"/>
       <c r="E701" s="4"/>
       <c r="J701" s="4"/>
     </row>
-    <row r="702" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D702" s="4"/>
       <c r="E702" s="4"/>
       <c r="J702" s="4"/>
     </row>
-    <row r="703" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D703" s="4"/>
       <c r="E703" s="4"/>
       <c r="J703" s="4"/>
     </row>
-    <row r="704" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D704" s="4"/>
       <c r="E704" s="4"/>
       <c r="J704" s="4"/>
     </row>
-    <row r="705" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D705" s="4"/>
       <c r="E705" s="4"/>
       <c r="J705" s="4"/>
     </row>
-    <row r="706" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D706" s="4"/>
       <c r="E706" s="4"/>
       <c r="J706" s="4"/>
     </row>
-    <row r="707" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D707" s="4"/>
       <c r="E707" s="4"/>
       <c r="J707" s="4"/>
     </row>
-    <row r="708" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D708" s="4"/>
       <c r="E708" s="4"/>
       <c r="J708" s="4"/>
     </row>
-    <row r="709" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D709" s="4"/>
       <c r="E709" s="4"/>
       <c r="J709" s="4"/>
     </row>
-    <row r="710" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D710" s="4"/>
       <c r="E710" s="4"/>
       <c r="J710" s="4"/>
     </row>
-    <row r="711" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D711" s="4"/>
       <c r="E711" s="4"/>
       <c r="J711" s="4"/>
     </row>
-    <row r="712" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D712" s="4"/>
       <c r="E712" s="4"/>
       <c r="J712" s="4"/>
     </row>
-    <row r="713" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D713" s="4"/>
       <c r="E713" s="4"/>
       <c r="J713" s="4"/>
     </row>
-    <row r="714" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D714" s="4"/>
       <c r="E714" s="4"/>
       <c r="J714" s="4"/>
     </row>
-    <row r="715" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D715" s="4"/>
       <c r="E715" s="4"/>
       <c r="J715" s="4"/>
     </row>
-    <row r="716" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D716" s="4"/>
       <c r="E716" s="4"/>
       <c r="J716" s="4"/>
     </row>
-    <row r="717" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D717" s="4"/>
       <c r="E717" s="4"/>
       <c r="J717" s="4"/>
     </row>
-    <row r="718" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D718" s="4"/>
       <c r="E718" s="4"/>
       <c r="J718" s="4"/>
     </row>
-    <row r="719" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D719" s="4"/>
       <c r="E719" s="4"/>
       <c r="J719" s="4"/>
     </row>
-    <row r="720" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D720" s="4"/>
       <c r="E720" s="4"/>
       <c r="J720" s="4"/>
     </row>
-    <row r="721" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D721" s="4"/>
       <c r="E721" s="4"/>
       <c r="J721" s="4"/>
     </row>
-    <row r="722" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D722" s="4"/>
       <c r="E722" s="4"/>
       <c r="J722" s="4"/>
     </row>
-    <row r="723" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D723" s="4"/>
       <c r="E723" s="4"/>
       <c r="J723" s="4"/>
     </row>
-    <row r="724" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D724" s="4"/>
       <c r="E724" s="4"/>
       <c r="J724" s="4"/>
     </row>
-    <row r="725" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D725" s="4"/>
       <c r="E725" s="4"/>
       <c r="J725" s="4"/>
     </row>
-    <row r="726" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D726" s="4"/>
       <c r="E726" s="4"/>
       <c r="J726" s="4"/>
     </row>
-    <row r="727" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D727" s="4"/>
       <c r="E727" s="4"/>
       <c r="J727" s="4"/>
     </row>
-    <row r="728" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D728" s="4"/>
       <c r="E728" s="4"/>
       <c r="J728" s="4"/>
     </row>
-    <row r="729" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D729" s="4"/>
       <c r="E729" s="4"/>
       <c r="J729" s="4"/>
     </row>
-    <row r="730" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D730" s="4"/>
       <c r="E730" s="4"/>
       <c r="J730" s="4"/>
     </row>
-    <row r="731" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D731" s="4"/>
       <c r="E731" s="4"/>
       <c r="J731" s="4"/>
     </row>
-    <row r="732" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D732" s="4"/>
       <c r="E732" s="4"/>
       <c r="J732" s="4"/>
     </row>
-    <row r="733" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D733" s="4"/>
       <c r="E733" s="4"/>
       <c r="J733" s="4"/>
     </row>
-    <row r="734" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D734" s="4"/>
       <c r="E734" s="4"/>
       <c r="J734" s="4"/>
     </row>
-    <row r="735" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D735" s="4"/>
       <c r="E735" s="4"/>
       <c r="J735" s="4"/>
     </row>
-    <row r="736" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D736" s="4"/>
       <c r="E736" s="4"/>
       <c r="J736" s="4"/>
     </row>
-    <row r="737" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D737" s="4"/>
       <c r="E737" s="4"/>
       <c r="J737" s="4"/>
     </row>
-    <row r="738" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D738" s="4"/>
       <c r="E738" s="4"/>
       <c r="J738" s="4"/>
     </row>
-    <row r="739" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D739" s="4"/>
       <c r="E739" s="4"/>
       <c r="J739" s="4"/>
     </row>
-    <row r="740" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D740" s="4"/>
       <c r="E740" s="4"/>
       <c r="J740" s="4"/>
     </row>
-    <row r="741" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D741" s="4"/>
       <c r="E741" s="4"/>
       <c r="J741" s="4"/>
     </row>
-    <row r="742" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D742" s="4"/>
       <c r="E742" s="4"/>
       <c r="J742" s="4"/>
     </row>
-    <row r="743" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D743" s="4"/>
       <c r="E743" s="4"/>
       <c r="J743" s="4"/>
     </row>
-    <row r="744" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D744" s="4"/>
       <c r="E744" s="4"/>
       <c r="J744" s="4"/>
     </row>
-    <row r="745" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D745" s="4"/>
       <c r="E745" s="4"/>
       <c r="J745" s="4"/>
     </row>
-    <row r="746" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D746" s="4"/>
       <c r="E746" s="4"/>
       <c r="J746" s="4"/>
     </row>
-    <row r="747" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D747" s="4"/>
       <c r="E747" s="4"/>
       <c r="J747" s="4"/>
     </row>
-    <row r="748" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D748" s="4"/>
       <c r="E748" s="4"/>
       <c r="J748" s="4"/>
     </row>
-    <row r="749" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D749" s="4"/>
       <c r="E749" s="4"/>
       <c r="J749" s="4"/>
     </row>
-    <row r="750" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D750" s="4"/>
       <c r="E750" s="4"/>
       <c r="J750" s="4"/>
     </row>
-    <row r="751" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D751" s="4"/>
       <c r="E751" s="4"/>
       <c r="J751" s="4"/>
     </row>
-    <row r="752" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D752" s="4"/>
       <c r="E752" s="4"/>
       <c r="J752" s="4"/>
     </row>
-    <row r="753" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D753" s="4"/>
       <c r="E753" s="4"/>
       <c r="J753" s="4"/>
     </row>
-    <row r="754" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D754" s="4"/>
       <c r="E754" s="4"/>
       <c r="J754" s="4"/>
     </row>
-    <row r="755" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D755" s="4"/>
       <c r="E755" s="4"/>
       <c r="J755" s="4"/>
     </row>
-    <row r="756" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D756" s="4"/>
       <c r="E756" s="4"/>
       <c r="J756" s="4"/>
     </row>
-    <row r="757" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D757" s="4"/>
       <c r="E757" s="4"/>
       <c r="J757" s="4"/>
     </row>
-    <row r="758" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D758" s="4"/>
       <c r="E758" s="4"/>
       <c r="J758" s="4"/>
     </row>
-    <row r="759" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D759" s="4"/>
       <c r="E759" s="4"/>
       <c r="J759" s="4"/>
     </row>
-    <row r="760" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D760" s="4"/>
       <c r="E760" s="4"/>
       <c r="J760" s="4"/>
     </row>
-    <row r="761" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D761" s="4"/>
       <c r="E761" s="4"/>
       <c r="J761" s="4"/>
     </row>
-    <row r="762" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D762" s="4"/>
       <c r="E762" s="4"/>
       <c r="J762" s="4"/>
     </row>
-    <row r="763" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D763" s="4"/>
       <c r="E763" s="4"/>
       <c r="J763" s="4"/>
     </row>
-    <row r="764" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D764" s="4"/>
       <c r="E764" s="4"/>
       <c r="J764" s="4"/>
     </row>
-    <row r="765" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D765" s="4"/>
       <c r="E765" s="4"/>
       <c r="J765" s="4"/>
     </row>
-    <row r="766" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D766" s="4"/>
       <c r="E766" s="4"/>
       <c r="J766" s="4"/>
     </row>
-    <row r="767" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D767" s="4"/>
       <c r="E767" s="4"/>
       <c r="J767" s="4"/>
     </row>
-    <row r="768" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D768" s="4"/>
       <c r="E768" s="4"/>
       <c r="J768" s="4"/>
     </row>
-    <row r="769" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D769" s="4"/>
       <c r="E769" s="4"/>
       <c r="J769" s="4"/>
     </row>
-    <row r="770" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D770" s="4"/>
       <c r="E770" s="4"/>
       <c r="J770" s="4"/>
     </row>
-    <row r="771" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D771" s="4"/>
       <c r="E771" s="4"/>
       <c r="J771" s="4"/>
     </row>
-    <row r="772" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D772" s="4"/>
       <c r="E772" s="4"/>
       <c r="J772" s="4"/>
     </row>
-    <row r="773" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D773" s="4"/>
       <c r="E773" s="4"/>
       <c r="J773" s="4"/>
     </row>
-    <row r="774" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D774" s="4"/>
       <c r="E774" s="4"/>
       <c r="J774" s="4"/>
     </row>
-    <row r="775" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D775" s="4"/>
       <c r="E775" s="4"/>
       <c r="J775" s="4"/>
     </row>
-    <row r="776" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D776" s="4"/>
       <c r="E776" s="4"/>
       <c r="J776" s="4"/>
     </row>
-    <row r="777" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D777" s="4"/>
       <c r="E777" s="4"/>
       <c r="J777" s="4"/>
     </row>
-    <row r="778" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D778" s="4"/>
       <c r="E778" s="4"/>
       <c r="J778" s="4"/>
     </row>
-    <row r="779" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D779" s="4"/>
       <c r="E779" s="4"/>
       <c r="J779" s="4"/>
     </row>
-    <row r="780" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D780" s="4"/>
       <c r="E780" s="4"/>
       <c r="J780" s="4"/>
     </row>
-    <row r="781" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D781" s="4"/>
       <c r="E781" s="4"/>
       <c r="J781" s="4"/>
     </row>
-    <row r="782" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D782" s="4"/>
       <c r="E782" s="4"/>
       <c r="J782" s="4"/>
     </row>
-    <row r="783" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D783" s="4"/>
       <c r="E783" s="4"/>
       <c r="J783" s="4"/>
     </row>
-    <row r="784" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D784" s="4"/>
       <c r="E784" s="4"/>
       <c r="J784" s="4"/>
     </row>
-    <row r="785" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D785" s="4"/>
       <c r="E785" s="4"/>
       <c r="J785" s="4"/>
     </row>
-    <row r="786" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D786" s="4"/>
       <c r="E786" s="4"/>
       <c r="J786" s="4"/>
     </row>
-    <row r="787" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D787" s="4"/>
       <c r="E787" s="4"/>
       <c r="J787" s="4"/>
     </row>
-    <row r="788" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D788" s="4"/>
       <c r="E788" s="4"/>
       <c r="J788" s="4"/>
     </row>
-    <row r="789" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D789" s="4"/>
       <c r="E789" s="4"/>
       <c r="J789" s="4"/>
     </row>
-    <row r="790" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D790" s="4"/>
       <c r="E790" s="4"/>
       <c r="J790" s="4"/>
     </row>
-    <row r="791" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D791" s="4"/>
       <c r="E791" s="4"/>
       <c r="J791" s="4"/>
     </row>
-    <row r="792" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D792" s="4"/>
       <c r="E792" s="4"/>
       <c r="J792" s="4"/>
     </row>
-    <row r="793" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D793" s="4"/>
       <c r="E793" s="4"/>
       <c r="J793" s="4"/>
     </row>
-    <row r="794" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D794" s="4"/>
       <c r="E794" s="4"/>
       <c r="J794" s="4"/>
     </row>
-    <row r="795" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D795" s="4"/>
       <c r="E795" s="4"/>
       <c r="J795" s="4"/>
     </row>
-    <row r="796" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D796" s="4"/>
       <c r="E796" s="4"/>
       <c r="J796" s="4"/>
     </row>
-    <row r="797" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D797" s="4"/>
       <c r="E797" s="4"/>
       <c r="J797" s="4"/>
     </row>
-    <row r="798" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D798" s="4"/>
       <c r="E798" s="4"/>
       <c r="J798" s="4"/>
     </row>
-    <row r="799" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D799" s="4"/>
       <c r="E799" s="4"/>
       <c r="J799" s="4"/>
     </row>
-    <row r="800" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D800" s="4"/>
       <c r="E800" s="4"/>
       <c r="J800" s="4"/>
     </row>
-    <row r="801" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D801" s="4"/>
       <c r="E801" s="4"/>
       <c r="J801" s="4"/>
     </row>
-    <row r="802" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D802" s="4"/>
       <c r="E802" s="4"/>
       <c r="J802" s="4"/>
     </row>
-    <row r="803" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D803" s="4"/>
       <c r="E803" s="4"/>
       <c r="J803" s="4"/>
     </row>
-    <row r="804" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D804" s="4"/>
       <c r="E804" s="4"/>
       <c r="J804" s="4"/>
     </row>
-    <row r="805" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D805" s="4"/>
       <c r="E805" s="4"/>
       <c r="J805" s="4"/>
     </row>
-    <row r="806" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D806" s="4"/>
       <c r="E806" s="4"/>
       <c r="J806" s="4"/>
     </row>
-    <row r="807" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D807" s="4"/>
       <c r="E807" s="4"/>
       <c r="J807" s="4"/>
     </row>
-    <row r="808" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D808" s="4"/>
       <c r="E808" s="4"/>
       <c r="J808" s="4"/>
     </row>
-    <row r="809" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D809" s="4"/>
       <c r="E809" s="4"/>
       <c r="J809" s="4"/>
     </row>
-    <row r="810" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D810" s="4"/>
       <c r="E810" s="4"/>
       <c r="J810" s="4"/>
     </row>
-    <row r="811" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D811" s="4"/>
       <c r="E811" s="4"/>
       <c r="J811" s="4"/>
     </row>
-    <row r="812" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D812" s="4"/>
       <c r="E812" s="4"/>
       <c r="J812" s="4"/>
     </row>
-    <row r="813" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D813" s="4"/>
       <c r="E813" s="4"/>
       <c r="J813" s="4"/>
     </row>
-    <row r="814" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D814" s="4"/>
       <c r="E814" s="4"/>
       <c r="J814" s="4"/>
     </row>
-    <row r="815" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D815" s="4"/>
       <c r="E815" s="4"/>
       <c r="J815" s="4"/>
     </row>
-    <row r="816" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D816" s="4"/>
       <c r="E816" s="4"/>
       <c r="J816" s="4"/>
     </row>
-    <row r="817" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D817" s="4"/>
       <c r="E817" s="4"/>
       <c r="J817" s="4"/>
     </row>
-    <row r="818" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D818" s="4"/>
       <c r="E818" s="4"/>
       <c r="J818" s="4"/>
     </row>
-    <row r="819" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D819" s="4"/>
       <c r="E819" s="4"/>
       <c r="J819" s="4"/>
     </row>
-    <row r="820" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D820" s="4"/>
       <c r="E820" s="4"/>
       <c r="J820" s="4"/>
     </row>
-    <row r="821" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D821" s="4"/>
       <c r="E821" s="4"/>
       <c r="J821" s="4"/>
     </row>
-    <row r="822" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D822" s="4"/>
       <c r="E822" s="4"/>
       <c r="J822" s="4"/>
     </row>
-    <row r="823" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D823" s="4"/>
       <c r="E823" s="4"/>
       <c r="J823" s="4"/>
     </row>
-    <row r="824" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D824" s="4"/>
       <c r="E824" s="4"/>
       <c r="J824" s="4"/>
     </row>
-    <row r="825" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D825" s="4"/>
       <c r="E825" s="4"/>
       <c r="J825" s="4"/>
     </row>
-    <row r="826" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D826" s="4"/>
       <c r="E826" s="4"/>
       <c r="J826" s="4"/>
     </row>
-    <row r="827" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D827" s="4"/>
       <c r="E827" s="4"/>
       <c r="J827" s="4"/>
     </row>
-    <row r="828" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D828" s="4"/>
       <c r="E828" s="4"/>
       <c r="J828" s="4"/>
     </row>
-    <row r="829" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D829" s="4"/>
       <c r="E829" s="4"/>
       <c r="J829" s="4"/>
     </row>
-    <row r="830" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D830" s="4"/>
       <c r="E830" s="4"/>
       <c r="J830" s="4"/>
     </row>
-    <row r="831" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D831" s="4"/>
       <c r="E831" s="4"/>
       <c r="J831" s="4"/>
     </row>
-    <row r="832" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D832" s="4"/>
       <c r="E832" s="4"/>
       <c r="J832" s="4"/>
     </row>
-    <row r="833" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D833" s="4"/>
       <c r="E833" s="4"/>
       <c r="J833" s="4"/>
     </row>
-    <row r="834" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D834" s="4"/>
       <c r="E834" s="4"/>
       <c r="J834" s="4"/>
     </row>
-    <row r="835" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D835" s="4"/>
       <c r="E835" s="4"/>
       <c r="J835" s="4"/>
     </row>
-    <row r="836" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D836" s="4"/>
       <c r="E836" s="4"/>
       <c r="J836" s="4"/>
     </row>
-    <row r="837" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D837" s="4"/>
       <c r="E837" s="4"/>
       <c r="J837" s="4"/>
     </row>
-    <row r="838" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D838" s="4"/>
       <c r="E838" s="4"/>
       <c r="J838" s="4"/>
     </row>
-    <row r="839" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D839" s="4"/>
       <c r="E839" s="4"/>
       <c r="J839" s="4"/>
     </row>
-    <row r="840" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D840" s="4"/>
       <c r="E840" s="4"/>
       <c r="J840" s="4"/>
     </row>
-    <row r="841" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D841" s="4"/>
       <c r="E841" s="4"/>
       <c r="J841" s="4"/>
     </row>
-    <row r="842" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D842" s="4"/>
       <c r="E842" s="4"/>
       <c r="J842" s="4"/>
     </row>
-    <row r="843" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D843" s="4"/>
       <c r="E843" s="4"/>
       <c r="J843" s="4"/>
     </row>
-    <row r="844" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D844" s="4"/>
       <c r="E844" s="4"/>
       <c r="J844" s="4"/>
     </row>
-    <row r="845" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D845" s="4"/>
       <c r="E845" s="4"/>
       <c r="J845" s="4"/>
     </row>
-    <row r="846" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D846" s="4"/>
       <c r="E846" s="4"/>
       <c r="J846" s="4"/>
     </row>
-    <row r="847" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D847" s="4"/>
       <c r="E847" s="4"/>
       <c r="J847" s="4"/>
     </row>
-    <row r="848" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D848" s="4"/>
       <c r="E848" s="4"/>
       <c r="J848" s="4"/>
     </row>
-    <row r="849" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D849" s="4"/>
       <c r="E849" s="4"/>
       <c r="J849" s="4"/>
     </row>
-    <row r="850" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D850" s="4"/>
       <c r="E850" s="4"/>
       <c r="J850" s="4"/>
     </row>
-    <row r="851" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D851" s="4"/>
       <c r="E851" s="4"/>
       <c r="J851" s="4"/>
     </row>
-    <row r="852" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D852" s="4"/>
       <c r="E852" s="4"/>
       <c r="J852" s="4"/>
     </row>
-    <row r="853" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D853" s="4"/>
       <c r="E853" s="4"/>
       <c r="J853" s="4"/>
     </row>
-    <row r="854" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D854" s="4"/>
       <c r="E854" s="4"/>
       <c r="J854" s="4"/>
     </row>
-    <row r="855" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D855" s="4"/>
       <c r="E855" s="4"/>
       <c r="J855" s="4"/>
     </row>
-    <row r="856" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D856" s="4"/>
       <c r="E856" s="4"/>
       <c r="J856" s="4"/>
     </row>
-    <row r="857" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D857" s="4"/>
       <c r="E857" s="4"/>
       <c r="J857" s="4"/>
     </row>
-    <row r="858" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D858" s="4"/>
       <c r="E858" s="4"/>
       <c r="J858" s="4"/>
     </row>
-    <row r="859" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D859" s="4"/>
       <c r="E859" s="4"/>
       <c r="J859" s="4"/>
     </row>
-    <row r="860" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D860" s="4"/>
       <c r="E860" s="4"/>
       <c r="J860" s="4"/>
     </row>
-    <row r="861" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D861" s="4"/>
       <c r="E861" s="4"/>
       <c r="J861" s="4"/>
     </row>
-    <row r="862" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D862" s="4"/>
       <c r="E862" s="4"/>
       <c r="J862" s="4"/>
     </row>
-    <row r="863" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D863" s="4"/>
       <c r="E863" s="4"/>
       <c r="J863" s="4"/>
     </row>
-    <row r="864" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D864" s="4"/>
       <c r="E864" s="4"/>
       <c r="J864" s="4"/>
     </row>
-    <row r="865" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D865" s="4"/>
       <c r="E865" s="4"/>
       <c r="J865" s="4"/>
     </row>
-    <row r="866" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D866" s="4"/>
       <c r="E866" s="4"/>
       <c r="J866" s="4"/>
     </row>
-    <row r="867" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D867" s="4"/>
       <c r="E867" s="4"/>
       <c r="J867" s="4"/>
     </row>
-    <row r="868" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D868" s="4"/>
       <c r="E868" s="4"/>
       <c r="J868" s="4"/>
     </row>
-    <row r="869" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D869" s="4"/>
       <c r="E869" s="4"/>
       <c r="J869" s="4"/>
     </row>
-    <row r="870" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D870" s="4"/>
       <c r="E870" s="4"/>
       <c r="J870" s="4"/>
     </row>
-    <row r="871" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D871" s="4"/>
       <c r="E871" s="4"/>
       <c r="J871" s="4"/>
     </row>
-    <row r="872" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D872" s="4"/>
       <c r="E872" s="4"/>
       <c r="J872" s="4"/>
     </row>
-    <row r="873" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D873" s="4"/>
       <c r="E873" s="4"/>
       <c r="J873" s="4"/>
     </row>
-    <row r="874" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D874" s="4"/>
       <c r="E874" s="4"/>
       <c r="J874" s="4"/>
     </row>
-    <row r="875" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D875" s="4"/>
       <c r="E875" s="4"/>
       <c r="J875" s="4"/>
     </row>
-    <row r="876" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D876" s="4"/>
       <c r="E876" s="4"/>
       <c r="J876" s="4"/>
     </row>
-    <row r="877" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D877" s="4"/>
       <c r="E877" s="4"/>
       <c r="J877" s="4"/>
     </row>
-    <row r="878" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D878" s="4"/>
       <c r="E878" s="4"/>
       <c r="J878" s="4"/>
     </row>
-    <row r="879" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D879" s="4"/>
       <c r="E879" s="4"/>
       <c r="J879" s="4"/>
     </row>
-    <row r="880" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D880" s="4"/>
       <c r="E880" s="4"/>
       <c r="J880" s="4"/>
     </row>
-    <row r="881" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D881" s="4"/>
       <c r="E881" s="4"/>
       <c r="J881" s="4"/>
     </row>
-    <row r="882" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D882" s="4"/>
       <c r="E882" s="4"/>
       <c r="J882" s="4"/>
     </row>
-    <row r="883" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D883" s="4"/>
       <c r="E883" s="4"/>
       <c r="J883" s="4"/>
     </row>
-    <row r="884" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D884" s="4"/>
       <c r="E884" s="4"/>
       <c r="J884" s="4"/>
     </row>
-    <row r="885" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D885" s="4"/>
       <c r="E885" s="4"/>
       <c r="J885" s="4"/>
     </row>
-    <row r="886" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D886" s="4"/>
       <c r="E886" s="4"/>
       <c r="J886" s="4"/>
     </row>
-    <row r="887" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D887" s="4"/>
       <c r="E887" s="4"/>
       <c r="J887" s="4"/>
     </row>
-    <row r="888" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D888" s="4"/>
       <c r="E888" s="4"/>
       <c r="J888" s="4"/>
     </row>
-    <row r="889" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D889" s="4"/>
       <c r="E889" s="4"/>
       <c r="J889" s="4"/>
     </row>
-    <row r="890" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D890" s="4"/>
       <c r="E890" s="4"/>
       <c r="J890" s="4"/>
     </row>
-    <row r="891" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D891" s="4"/>
       <c r="E891" s="4"/>
       <c r="J891" s="4"/>
     </row>
-    <row r="892" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D892" s="4"/>
       <c r="E892" s="4"/>
       <c r="J892" s="4"/>
     </row>
-    <row r="893" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D893" s="4"/>
       <c r="E893" s="4"/>
       <c r="J893" s="4"/>
     </row>
-    <row r="894" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D894" s="4"/>
       <c r="E894" s="4"/>
       <c r="J894" s="4"/>
     </row>
-    <row r="895" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D895" s="4"/>
       <c r="E895" s="4"/>
       <c r="J895" s="4"/>
     </row>
-    <row r="896" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D896" s="4"/>
       <c r="E896" s="4"/>
       <c r="J896" s="4"/>
     </row>
-    <row r="897" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D897" s="4"/>
       <c r="E897" s="4"/>
       <c r="J897" s="4"/>
     </row>
-    <row r="898" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D898" s="4"/>
       <c r="E898" s="4"/>
       <c r="J898" s="4"/>
     </row>
-    <row r="899" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D899" s="4"/>
       <c r="E899" s="4"/>
       <c r="J899" s="4"/>
     </row>
-    <row r="900" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D900" s="4"/>
       <c r="E900" s="4"/>
       <c r="J900" s="4"/>
     </row>
-    <row r="901" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D901" s="4"/>
       <c r="E901" s="4"/>
       <c r="J901" s="4"/>
     </row>
-    <row r="902" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D902" s="4"/>
       <c r="E902" s="4"/>
       <c r="J902" s="4"/>
     </row>
-    <row r="903" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D903" s="4"/>
       <c r="E903" s="4"/>
       <c r="J903" s="4"/>
     </row>
-    <row r="904" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D904" s="4"/>
       <c r="E904" s="4"/>
       <c r="J904" s="4"/>
     </row>
-    <row r="905" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D905" s="4"/>
       <c r="E905" s="4"/>
       <c r="J905" s="4"/>
     </row>
-    <row r="906" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D906" s="4"/>
       <c r="E906" s="4"/>
       <c r="J906" s="4"/>
     </row>
-    <row r="907" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D907" s="4"/>
       <c r="E907" s="4"/>
       <c r="J907" s="4"/>
     </row>
-    <row r="908" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D908" s="4"/>
       <c r="E908" s="4"/>
       <c r="J908" s="4"/>
     </row>
-    <row r="909" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D909" s="4"/>
       <c r="E909" s="4"/>
       <c r="J909" s="4"/>
     </row>
-    <row r="910" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D910" s="4"/>
       <c r="E910" s="4"/>
       <c r="J910" s="4"/>
     </row>
-    <row r="911" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D911" s="4"/>
       <c r="E911" s="4"/>
       <c r="J911" s="4"/>
     </row>
-    <row r="912" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D912" s="4"/>
       <c r="E912" s="4"/>
       <c r="J912" s="4"/>
     </row>
-    <row r="913" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D913" s="4"/>
       <c r="E913" s="4"/>
       <c r="J913" s="4"/>
     </row>
-    <row r="914" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D914" s="4"/>
       <c r="E914" s="4"/>
       <c r="J914" s="4"/>
     </row>
-    <row r="915" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D915" s="4"/>
       <c r="E915" s="4"/>
       <c r="J915" s="4"/>
     </row>
-    <row r="916" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D916" s="4"/>
       <c r="E916" s="4"/>
       <c r="J916" s="4"/>
     </row>
-    <row r="917" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D917" s="4"/>
       <c r="E917" s="4"/>
       <c r="J917" s="4"/>
     </row>
-    <row r="918" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D918" s="4"/>
       <c r="E918" s="4"/>
       <c r="J918" s="4"/>
     </row>
-    <row r="919" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D919" s="4"/>
       <c r="E919" s="4"/>
       <c r="J919" s="4"/>
     </row>
-    <row r="920" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D920" s="4"/>
       <c r="E920" s="4"/>
       <c r="J920" s="4"/>
     </row>
-    <row r="921" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D921" s="4"/>
       <c r="E921" s="4"/>
       <c r="J921" s="4"/>
     </row>
-    <row r="922" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D922" s="4"/>
       <c r="E922" s="4"/>
       <c r="J922" s="4"/>
     </row>
-    <row r="923" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D923" s="4"/>
       <c r="E923" s="4"/>
       <c r="J923" s="4"/>
     </row>
-    <row r="924" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D924" s="4"/>
       <c r="E924" s="4"/>
       <c r="J924" s="4"/>
     </row>
-    <row r="925" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D925" s="4"/>
       <c r="E925" s="4"/>
       <c r="J925" s="4"/>
     </row>
-    <row r="926" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D926" s="4"/>
       <c r="E926" s="4"/>
       <c r="J926" s="4"/>
     </row>
-    <row r="927" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D927" s="4"/>
       <c r="E927" s="4"/>
       <c r="J927" s="4"/>
     </row>
-    <row r="928" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D928" s="4"/>
       <c r="E928" s="4"/>
       <c r="J928" s="4"/>
     </row>
-    <row r="929" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D929" s="4"/>
       <c r="E929" s="4"/>
       <c r="J929" s="4"/>
     </row>
-    <row r="930" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D930" s="4"/>
       <c r="E930" s="4"/>
       <c r="J930" s="4"/>
     </row>
-    <row r="931" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D931" s="4"/>
       <c r="E931" s="4"/>
       <c r="J931" s="4"/>
     </row>
-    <row r="932" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D932" s="4"/>
       <c r="E932" s="4"/>
       <c r="J932" s="4"/>
     </row>
-    <row r="933" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D933" s="4"/>
       <c r="E933" s="4"/>
       <c r="J933" s="4"/>
     </row>
-    <row r="934" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D934" s="4"/>
       <c r="E934" s="4"/>
       <c r="J934" s="4"/>
     </row>
-    <row r="935" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D935" s="4"/>
       <c r="E935" s="4"/>
       <c r="J935" s="4"/>
     </row>
-    <row r="936" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D936" s="4"/>
       <c r="E936" s="4"/>
       <c r="J936" s="4"/>
     </row>
-    <row r="937" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D937" s="4"/>
       <c r="E937" s="4"/>
       <c r="J937" s="4"/>
     </row>
-    <row r="938" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D938" s="4"/>
       <c r="E938" s="4"/>
       <c r="J938" s="4"/>
     </row>
-    <row r="939" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D939" s="4"/>
       <c r="E939" s="4"/>
       <c r="J939" s="4"/>
     </row>
-    <row r="940" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D940" s="4"/>
       <c r="E940" s="4"/>
       <c r="J940" s="4"/>
     </row>
-    <row r="941" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D941" s="4"/>
       <c r="E941" s="4"/>
       <c r="J941" s="4"/>
     </row>
-    <row r="942" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D942" s="4"/>
       <c r="E942" s="4"/>
       <c r="J942" s="4"/>
     </row>
-    <row r="943" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D943" s="4"/>
       <c r="E943" s="4"/>
       <c r="J943" s="4"/>
     </row>
-    <row r="944" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D944" s="4"/>
       <c r="E944" s="4"/>
       <c r="J944" s="4"/>
     </row>
-    <row r="945" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D945" s="4"/>
       <c r="E945" s="4"/>
       <c r="J945" s="4"/>
     </row>
-    <row r="946" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D946" s="4"/>
       <c r="E946" s="4"/>
       <c r="J946" s="4"/>
     </row>
-    <row r="947" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D947" s="4"/>
       <c r="E947" s="4"/>
       <c r="J947" s="4"/>
     </row>
-    <row r="948" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D948" s="4"/>
       <c r="E948" s="4"/>
       <c r="J948" s="4"/>
     </row>
-    <row r="949" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D949" s="4"/>
       <c r="E949" s="4"/>
       <c r="J949" s="4"/>
     </row>
-    <row r="950" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D950" s="4"/>
       <c r="E950" s="4"/>
       <c r="J950" s="4"/>
     </row>
-    <row r="951" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D951" s="4"/>
       <c r="E951" s="4"/>
       <c r="J951" s="4"/>
     </row>
-    <row r="952" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D952" s="4"/>
       <c r="E952" s="4"/>
       <c r="J952" s="4"/>
     </row>
-    <row r="953" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D953" s="4"/>
       <c r="E953" s="4"/>
       <c r="J953" s="4"/>
     </row>
-    <row r="954" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D954" s="4"/>
       <c r="E954" s="4"/>
       <c r="J954" s="4"/>
     </row>
-    <row r="955" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D955" s="4"/>
       <c r="E955" s="4"/>
       <c r="J955" s="4"/>
     </row>
-    <row r="956" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D956" s="4"/>
       <c r="E956" s="4"/>
       <c r="J956" s="4"/>
     </row>
-    <row r="957" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D957" s="4"/>
       <c r="E957" s="4"/>
       <c r="J957" s="4"/>
     </row>
-    <row r="958" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D958" s="4"/>
       <c r="E958" s="4"/>
       <c r="J958" s="4"/>
     </row>
-    <row r="959" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D959" s="4"/>
       <c r="E959" s="4"/>
       <c r="J959" s="4"/>
     </row>
-    <row r="960" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D960" s="4"/>
       <c r="E960" s="4"/>
       <c r="J960" s="4"/>
     </row>
-    <row r="961" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D961" s="4"/>
       <c r="E961" s="4"/>
       <c r="J961" s="4"/>
     </row>
-    <row r="962" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D962" s="4"/>
       <c r="E962" s="4"/>
       <c r="J962" s="4"/>
     </row>
-    <row r="963" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D963" s="4"/>
       <c r="E963" s="4"/>
       <c r="J963" s="4"/>
     </row>
-    <row r="964" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D964" s="4"/>
       <c r="E964" s="4"/>
       <c r="J964" s="4"/>
     </row>
-    <row r="965" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D965" s="4"/>
       <c r="E965" s="4"/>
       <c r="J965" s="4"/>
     </row>
-    <row r="966" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D966" s="4"/>
       <c r="E966" s="4"/>
       <c r="J966" s="4"/>
     </row>
-    <row r="967" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D967" s="4"/>
       <c r="E967" s="4"/>
       <c r="J967" s="4"/>
     </row>
-    <row r="968" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D968" s="4"/>
       <c r="E968" s="4"/>
       <c r="J968" s="4"/>
     </row>
-    <row r="969" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D969" s="4"/>
       <c r="E969" s="4"/>
       <c r="J969" s="4"/>
     </row>
-    <row r="970" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D970" s="4"/>
       <c r="E970" s="4"/>
       <c r="J970" s="4"/>
     </row>
-    <row r="971" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D971" s="4"/>
       <c r="E971" s="4"/>
       <c r="J971" s="4"/>
     </row>
-    <row r="972" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D972" s="4"/>
       <c r="E972" s="4"/>
       <c r="J972" s="4"/>
     </row>
-    <row r="973" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D973" s="4"/>
       <c r="E973" s="4"/>
       <c r="J973" s="4"/>
     </row>
-    <row r="974" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D974" s="4"/>
       <c r="E974" s="4"/>
       <c r="J974" s="4"/>
     </row>
-    <row r="975" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D975" s="4"/>
       <c r="E975" s="4"/>
       <c r="J975" s="4"/>
     </row>
-    <row r="976" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D976" s="4"/>
       <c r="E976" s="4"/>
       <c r="J976" s="4"/>
     </row>
-    <row r="977" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D977" s="4"/>
       <c r="E977" s="4"/>
       <c r="J977" s="4"/>
     </row>
-    <row r="978" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D978" s="4"/>
       <c r="E978" s="4"/>
       <c r="J978" s="4"/>
     </row>
-    <row r="979" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D979" s="4"/>
       <c r="E979" s="4"/>
       <c r="J979" s="4"/>
     </row>
-    <row r="980" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D980" s="4"/>
       <c r="E980" s="4"/>
       <c r="J980" s="4"/>
     </row>
-    <row r="981" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D981" s="4"/>
       <c r="E981" s="4"/>
       <c r="J981" s="4"/>
     </row>
-    <row r="982" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D982" s="4"/>
       <c r="E982" s="4"/>
       <c r="J982" s="4"/>
     </row>
-    <row r="983" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D983" s="4"/>
       <c r="E983" s="4"/>
       <c r="J983" s="4"/>
     </row>
-    <row r="984" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D984" s="4"/>
       <c r="E984" s="4"/>
       <c r="J984" s="4"/>
     </row>
-    <row r="985" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D985" s="4"/>
       <c r="E985" s="4"/>
       <c r="J985" s="4"/>
     </row>
-    <row r="986" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D986" s="4"/>
       <c r="E986" s="4"/>
       <c r="J986" s="4"/>
     </row>
-    <row r="987" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D987" s="4"/>
       <c r="E987" s="4"/>
       <c r="J987" s="4"/>
     </row>
-    <row r="988" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D988" s="4"/>
       <c r="E988" s="4"/>
       <c r="J988" s="4"/>
     </row>
-    <row r="989" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D989" s="4"/>
       <c r="E989" s="4"/>
       <c r="J989" s="4"/>
     </row>
-    <row r="990" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D990" s="4"/>
       <c r="E990" s="4"/>
       <c r="J990" s="4"/>
     </row>
-    <row r="991" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D991" s="4"/>
       <c r="E991" s="4"/>
       <c r="J991" s="4"/>
     </row>
-    <row r="992" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D992" s="4"/>
       <c r="E992" s="4"/>
       <c r="J992" s="4"/>
     </row>
-    <row r="993" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D993" s="4"/>
       <c r="E993" s="4"/>
       <c r="J993" s="4"/>
     </row>
-    <row r="994" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D994" s="4"/>
       <c r="E994" s="4"/>
       <c r="J994" s="4"/>
     </row>
-    <row r="995" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D995" s="4"/>
       <c r="E995" s="4"/>
       <c r="J995" s="4"/>
     </row>
-    <row r="996" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D996" s="4"/>
       <c r="E996" s="4"/>
       <c r="J996" s="4"/>
     </row>
-    <row r="997" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D997" s="4"/>
       <c r="E997" s="4"/>
       <c r="J997" s="4"/>
     </row>
-    <row r="998" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D998" s="4"/>
       <c r="E998" s="4"/>
       <c r="J998" s="4"/>
     </row>
-    <row r="999" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D999" s="4"/>
       <c r="E999" s="4"/>
       <c r="J999" s="4"/>
     </row>
-    <row r="1000" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D1000" s="4"/>
       <c r="E1000" s="4"/>
       <c r="J1000" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D51" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D51" r:id="rId1" display="hiroyuki_1@gmail.com"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>